--- a/data/_general_data/diets/all_ingredients.xlsx
+++ b/data/_general_data/diets/all_ingredients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\_general_data\diets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B03C46-56EE-4BDB-8C2F-49868583463A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C101E4C-72B9-4071-857E-D349E2443E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{EACE1C46-B374-4940-8FA1-58EDCA6D9B2B}"/>
+    <workbookView xWindow="14430" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{EACE1C46-B374-4940-8FA1-58EDCA6D9B2B}"/>
   </bookViews>
   <sheets>
     <sheet name="all_ingredients" sheetId="2" r:id="rId1"/>
@@ -251,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +390,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -749,7 +756,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -758,6 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1136,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB86C80-6855-4296-9746-1E92B0D65FFA}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,29 +1208,30 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E2" s="5">
-        <f>1-SUM(B2:D2)</f>
-        <v>0.29472543859649125</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.87840945369185397</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.87021653116117603</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.88605647699400303</v>
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.84588505065844988</v>
+      </c>
+      <c r="G2" s="5">
+        <f>F2*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="H2" s="5">
+        <f>G2*1.05</f>
+        <v>0.84377033803180379</v>
       </c>
       <c r="I2">
         <v>0.96</v>
@@ -1235,951 +1244,958 @@
         <f>J2</f>
         <v>0.96</v>
       </c>
-      <c r="L2">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="M2">
-        <f>L2-3*(2.16/100)</f>
-        <v>0.5292</v>
-      </c>
-      <c r="N2">
-        <f>L2+3*(2.16/100)</f>
-        <v>0.65879999999999994</v>
+      <c r="L2" s="5">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="M2" s="5">
+        <f>L2*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="N2" s="5">
+        <f>M2*1.05</f>
+        <v>0.70970343749999976</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.54631047778486397</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.6272807017543853E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <f>1-SUM(B3:D3)</f>
+        <v>0.32441496081162735</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.84588505065844988</v>
+      </c>
+      <c r="G3" s="5">
+        <f>F3*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="H3" s="5">
+        <f>G3*1.05</f>
+        <v>0.84377033803180379</v>
+      </c>
+      <c r="I3">
+        <v>0.96</v>
+      </c>
+      <c r="J3">
+        <f>I3</f>
+        <v>0.96</v>
+      </c>
+      <c r="K3">
+        <f>J3</f>
+        <v>0.96</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="M3" s="5">
+        <f>L3*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="N3" s="5">
+        <f>M3*1.05</f>
+        <v>0.70970343749999976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.56774999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.12</v>
+      </c>
+      <c r="D4">
+        <v>0.13</v>
+      </c>
+      <c r="E4">
+        <f>1-SUM(B4:D4)</f>
+        <v>0.18225000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.798073386</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.34427008599999998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.96128135800000003</v>
+      </c>
+      <c r="I4">
+        <v>0.96</v>
+      </c>
+      <c r="J4">
+        <f>I4</f>
+        <v>0.96</v>
+      </c>
+      <c r="K4">
+        <f>J4</f>
+        <v>0.96</v>
+      </c>
+      <c r="L4">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="M4" s="5">
+        <f>L4*0.95</f>
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="N4" s="5">
+        <f>M4*1.05</f>
+        <v>0.40897500000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.32650000000000001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <f>1-SUM(B5:D5)</f>
+        <v>0.54422543859649108</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.96631291399999997</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.85393499399999995</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.96</v>
+      </c>
+      <c r="J5">
+        <f>I5</f>
+        <v>0.96</v>
+      </c>
+      <c r="K5">
+        <f>J5</f>
+        <v>0.96</v>
+      </c>
+      <c r="L5">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="M5" s="5">
+        <f>L5*0.95</f>
+        <v>0.65170000000000006</v>
+      </c>
+      <c r="N5" s="5">
+        <f>M5*1.05</f>
+        <v>0.68428500000000014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.84588505065844988</v>
+      </c>
+      <c r="G6" s="5">
+        <f>F6*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="H6" s="5">
+        <f>G6*1.05</f>
+        <v>0.84377033803180379</v>
+      </c>
+      <c r="I6">
+        <v>0.96</v>
+      </c>
+      <c r="J6">
+        <f>I6</f>
+        <v>0.96</v>
+      </c>
+      <c r="K6">
+        <f>J6</f>
+        <v>0.96</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="M6" s="5">
+        <f>L6*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="N6" s="5">
+        <f>M6*1.05</f>
+        <v>0.70970343749999976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.84588505065844988</v>
+      </c>
+      <c r="G7" s="5">
+        <f>F7*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="H7" s="5">
+        <f>G7*1.05</f>
+        <v>0.84377033803180379</v>
+      </c>
+      <c r="I7">
+        <v>0.96</v>
+      </c>
+      <c r="J7">
+        <f>I7</f>
+        <v>0.96</v>
+      </c>
+      <c r="K7">
+        <f>J7</f>
+        <v>0.96</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="M7" s="5">
+        <f>L7*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="N7" s="5">
+        <f>M7*1.05</f>
+        <v>0.70970343749999976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.68</v>
+      </c>
+      <c r="C8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.02</v>
+      </c>
+      <c r="E8">
+        <v>0.24</v>
+      </c>
+      <c r="F8">
+        <v>0.94</v>
+      </c>
+      <c r="G8" s="5">
+        <f>F8*0.95</f>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <f>G8*1.05</f>
+        <v>0.93764999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.96</v>
+      </c>
+      <c r="J8">
+        <f>I8</f>
+        <v>0.96</v>
+      </c>
+      <c r="K8">
+        <f>J8</f>
+        <v>0.96</v>
+      </c>
+      <c r="L8">
+        <v>0.83</v>
+      </c>
+      <c r="M8" s="5">
+        <f>L8*0.95</f>
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="N8" s="5">
+        <f>M8*1.05</f>
+        <v>0.82792500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9">
+        <v>0.02</v>
+      </c>
+      <c r="D9">
+        <v>0.04</v>
+      </c>
+      <c r="E9">
+        <v>0.65</v>
+      </c>
+      <c r="F9">
+        <v>0.86</v>
+      </c>
+      <c r="G9" s="5">
+        <f>F9*0.95</f>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H9" s="5">
+        <f>G9*1.05</f>
+        <v>0.85785</v>
+      </c>
+      <c r="I9">
+        <v>0.96</v>
+      </c>
+      <c r="J9">
+        <f>I9</f>
+        <v>0.96</v>
+      </c>
+      <c r="K9">
+        <f>J9</f>
+        <v>0.96</v>
+      </c>
+      <c r="L9">
+        <v>0.6</v>
+      </c>
+      <c r="M9" s="5">
+        <f>L9*0.95</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N9" s="5">
+        <f>M9*1.05</f>
+        <v>0.59849999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.84332031299999999</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7.6272807017543853E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <f>1-SUM(B10:D10)</f>
+        <v>2.7405125596491331E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.86404060623452394</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.432006395470731</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.96</v>
+      </c>
+      <c r="J10">
+        <f>I10</f>
+        <v>0.96</v>
+      </c>
+      <c r="K10">
+        <f>J10</f>
+        <v>0.96</v>
+      </c>
+      <c r="L10">
+        <v>0.78</v>
+      </c>
+      <c r="M10" s="5">
+        <f>L10*0.95</f>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="N10" s="5">
+        <f>M10*1.05</f>
+        <v>0.77805000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f>75.4/100</f>
+        <v>0.754</v>
+      </c>
+      <c r="C11">
+        <f>11/100</f>
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <f>13.6/100</f>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E11">
+        <f>1-SUM(B11:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>90.7/100</f>
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="G11">
+        <f>87.5/100</f>
+        <v>0.875</v>
+      </c>
+      <c r="H11">
+        <f>93.6/100</f>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="I11">
+        <v>0.96</v>
+      </c>
+      <c r="J11">
+        <f>I11</f>
+        <v>0.96</v>
+      </c>
+      <c r="K11">
+        <f>J11</f>
+        <v>0.96</v>
+      </c>
+      <c r="L11">
+        <f>83.3/100</f>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="M11">
+        <f>74.5/100</f>
+        <v>0.745</v>
+      </c>
+      <c r="N11">
+        <f>92.6/100</f>
+        <v>0.92599999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B12">
         <f>70.6/100</f>
         <v>0.70599999999999996</v>
       </c>
-      <c r="C3">
+      <c r="C12">
         <f>9.9/100</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D3">
+      <c r="D12">
         <f>18.4/100</f>
         <v>0.184</v>
       </c>
-      <c r="E3">
-        <f>1-SUM(B3:D3)</f>
+      <c r="E12">
+        <f>1-SUM(B12:D12)</f>
         <v>1.1000000000000121E-2</v>
       </c>
-      <c r="F3">
+      <c r="F12">
         <f>87.7/100</f>
         <v>0.877</v>
       </c>
-      <c r="G3">
+      <c r="G12">
         <f>83.1/100</f>
         <v>0.83099999999999996</v>
       </c>
-      <c r="H3">
+      <c r="H12">
         <f>91.7/100</f>
         <v>0.91700000000000004</v>
       </c>
-      <c r="I3">
-        <v>0.96</v>
-      </c>
-      <c r="J3">
-        <f>I3</f>
-        <v>0.96</v>
-      </c>
-      <c r="K3">
-        <f>J3</f>
-        <v>0.96</v>
-      </c>
-      <c r="L3">
+      <c r="I12">
+        <v>0.96</v>
+      </c>
+      <c r="J12">
+        <f>I12</f>
+        <v>0.96</v>
+      </c>
+      <c r="K12">
+        <f>J12</f>
+        <v>0.96</v>
+      </c>
+      <c r="L12">
         <f>81.7/100</f>
         <v>0.81700000000000006</v>
       </c>
-      <c r="M3">
+      <c r="M12">
         <f>71.8/100</f>
         <v>0.71799999999999997</v>
       </c>
-      <c r="N3">
+      <c r="N12">
         <f>91.6/100</f>
         <v>0.91599999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <f>75.4/100</f>
-        <v>0.754</v>
-      </c>
-      <c r="C4">
-        <f>11/100</f>
-        <v>0.11</v>
-      </c>
-      <c r="D4">
-        <f>13.6/100</f>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E4">
-        <f>1-SUM(B4:D4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>90.7/100</f>
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="G4">
-        <f>87.5/100</f>
-        <v>0.875</v>
-      </c>
-      <c r="H4">
-        <f>93.6/100</f>
-        <v>0.93599999999999994</v>
-      </c>
-      <c r="I4">
-        <v>0.96</v>
-      </c>
-      <c r="J4">
-        <f>I4</f>
-        <v>0.96</v>
-      </c>
-      <c r="K4">
-        <f>J4</f>
-        <v>0.96</v>
-      </c>
-      <c r="L4">
-        <f>83.3/100</f>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="M4">
-        <f>74.5/100</f>
-        <v>0.745</v>
-      </c>
-      <c r="N4">
-        <f>92.6/100</f>
-        <v>0.92599999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.84588505065844988</v>
+      </c>
+      <c r="G13" s="5">
+        <f>F13*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="H13" s="5">
+        <f>G13*1.05</f>
+        <v>0.84377033803180379</v>
+      </c>
+      <c r="I13">
+        <v>0.96</v>
+      </c>
+      <c r="J13">
+        <f>I13</f>
+        <v>0.96</v>
+      </c>
+      <c r="K13">
+        <f>J13</f>
+        <v>0.96</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="M13" s="5">
+        <f>L13*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="N13" s="5">
+        <f>M13*1.05</f>
+        <v>0.70970343749999976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.84588505065844988</v>
+      </c>
+      <c r="G14" s="5">
+        <f>F14*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="H14" s="5">
+        <f>G14*1.05</f>
+        <v>0.84377033803180379</v>
+      </c>
+      <c r="I14">
+        <v>0.96</v>
+      </c>
+      <c r="J14">
+        <f>I14</f>
+        <v>0.96</v>
+      </c>
+      <c r="K14">
+        <f>J14</f>
+        <v>0.96</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="M14" s="5">
+        <f>L14*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="N14" s="5">
+        <f>M14*1.05</f>
+        <v>0.70970343749999976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.42</v>
+      </c>
+      <c r="C15">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F15">
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="G15" s="5">
+        <f>F15*0.95</f>
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="H15" s="5">
+        <f>G15*1.05</f>
+        <v>0.62842500000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.96</v>
+      </c>
+      <c r="J15">
+        <f>I15</f>
+        <v>0.96</v>
+      </c>
+      <c r="K15">
+        <f>J15</f>
+        <v>0.96</v>
+      </c>
+      <c r="L15">
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="M15" s="5">
+        <f>L15*0.95</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="N15" s="5">
+        <f>M15*1.05</f>
+        <v>0.64837500000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="C16">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D16">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="G16" s="5">
+        <f>F16*0.95</f>
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="H16" s="5">
+        <f>G16*1.05</f>
+        <v>0.62842500000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.96</v>
+      </c>
+      <c r="J16">
+        <f>I16</f>
+        <v>0.96</v>
+      </c>
+      <c r="K16">
+        <f>J16</f>
+        <v>0.96</v>
+      </c>
+      <c r="L16">
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="M16" s="5">
+        <f>L16*0.95</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="N16" s="5">
+        <f>M16*1.05</f>
+        <v>0.64837500000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C17">
+        <v>0.08</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.622</v>
+      </c>
+      <c r="G17" s="5">
+        <f>F17*0.95</f>
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="H17" s="5">
+        <f>G17*1.05</f>
+        <v>0.62044500000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.96</v>
+      </c>
+      <c r="J17">
+        <f>I17</f>
+        <v>0.96</v>
+      </c>
+      <c r="K17">
+        <f>J17</f>
+        <v>0.96</v>
+      </c>
+      <c r="L17">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="M17" s="5">
+        <f>L17*0.95</f>
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="N17" s="5">
+        <f>M17*1.05</f>
+        <v>0.60248999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="E18" s="5">
+        <f>1-SUM(B18:D18)</f>
+        <v>0.31972543859649116</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.89096484899999995</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.86241600900000004</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.91761146400000004</v>
+      </c>
+      <c r="I18">
+        <v>0.96</v>
+      </c>
+      <c r="J18">
+        <f>I18</f>
+        <v>0.96</v>
+      </c>
+      <c r="K18">
+        <f>J18</f>
+        <v>0.96</v>
+      </c>
+      <c r="L18">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="M18">
+        <f>L18-3*(2.16/100)</f>
+        <v>0.5292</v>
+      </c>
+      <c r="N18">
+        <f>L18+3*(2.16/100)</f>
+        <v>0.65879999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.84588505065844988</v>
+      </c>
+      <c r="G19" s="5">
+        <f>F19*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="H19" s="5">
+        <f>G19*1.05</f>
+        <v>0.84377033803180379</v>
+      </c>
+      <c r="I19">
+        <v>0.96</v>
+      </c>
+      <c r="J19">
+        <f>I19</f>
+        <v>0.96</v>
+      </c>
+      <c r="K19">
+        <f>J19</f>
+        <v>0.96</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="M19" s="5">
+        <f>L19*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="N19" s="5">
+        <f>M19*1.05</f>
+        <v>0.70970343749999976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-      <c r="B5">
+      <c r="B20">
         <f>AVERAGE(420.2,405.3,420.2,403.8,390.7,468.4)/1000</f>
         <v>0.41809999999999997</v>
       </c>
-      <c r="C5">
+      <c r="C20">
         <f>AVERAGE(175.4,153.9,171.8,132.3,106.7,100.1)/1000</f>
         <v>0.14003333333333337</v>
       </c>
-      <c r="D5">
+      <c r="D20">
         <f>AVERAGE(28.6,37.6,28,37.3,25.9,29.7)/1000</f>
         <v>3.1183333333333334E-2</v>
       </c>
-      <c r="E5">
-        <f>1-SUM(B5:D5)</f>
+      <c r="E20">
+        <f>1-SUM(B20:D20)</f>
         <v>0.41068333333333329</v>
       </c>
-      <c r="F5">
+      <c r="F20">
         <f>AVERAGE(89.5,89.3,87.9,88.2,89.3,90.1)/100</f>
         <v>0.89050000000000007</v>
       </c>
-      <c r="G5">
+      <c r="G20">
         <f>MIN(89.5,89.3,87.9,88.2,89.3,90.1)/100</f>
         <v>0.879</v>
       </c>
-      <c r="H5">
+      <c r="H20">
         <f>MAX(89.5,89.3,87.9,88.2,89.3,90.1)/100</f>
         <v>0.90099999999999991</v>
       </c>
-      <c r="I5">
-        <v>0.96</v>
-      </c>
-      <c r="J5">
-        <f>I5</f>
-        <v>0.96</v>
-      </c>
-      <c r="K5">
-        <f>J5</f>
-        <v>0.96</v>
-      </c>
-      <c r="L5">
+      <c r="I20">
+        <v>0.96</v>
+      </c>
+      <c r="J20">
+        <f>I20</f>
+        <v>0.96</v>
+      </c>
+      <c r="K20">
+        <f>J20</f>
+        <v>0.96</v>
+      </c>
+      <c r="L20">
         <f>AVERAGE(79.7,80.2,80,80,81.2,77.4)/100</f>
         <v>0.79749999999999999</v>
       </c>
-      <c r="M5">
+      <c r="M20">
         <f>MIN(79.7,80.2,80,80,81.2,77.4)/100</f>
         <v>0.77400000000000002</v>
       </c>
-      <c r="N5">
+      <c r="N20">
         <f>MAX(79.7,80.2,80,80,81.2,77.4)/100</f>
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.66886718749999996</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7.6272807017543853E-2</v>
-      </c>
-      <c r="E6" s="5">
-        <f>1-SUM(B6:D6)</f>
-        <v>0.20185825109649125</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.86404060623452394</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.432006395470731</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0.96</v>
-      </c>
-      <c r="J6">
-        <f>I6</f>
-        <v>0.96</v>
-      </c>
-      <c r="K6">
-        <f>J6</f>
-        <v>0.96</v>
-      </c>
-      <c r="L6">
-        <v>0.78</v>
-      </c>
-      <c r="M6" s="5">
-        <f>L6*0.95</f>
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="N6" s="5">
-        <f>M6*1.05</f>
-        <v>0.77805000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.58783333333333299</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E7" s="5">
-        <f>1-SUM(B7:D7)</f>
-        <v>0.28289210526315822</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.78838418048218295</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.71527835752917002</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.84344360254032402</v>
-      </c>
-      <c r="I7">
-        <v>0.96</v>
-      </c>
-      <c r="J7">
-        <f>I7</f>
-        <v>0.96</v>
-      </c>
-      <c r="K7">
-        <f>J7</f>
-        <v>0.96</v>
-      </c>
-      <c r="L7">
-        <v>0.68900000000000006</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" ref="M7:M40" si="0">L7*0.95</f>
-        <v>0.65455000000000008</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ref="N7:N40" si="1">M7*1.05</f>
-        <v>0.6872775000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.57633333333333303</v>
-      </c>
-      <c r="C8">
-        <v>0.12</v>
-      </c>
-      <c r="D8">
-        <v>0.13</v>
-      </c>
-      <c r="E8">
-        <v>0.19</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.86333392259379405</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.72347036397881004</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.93567683507696298</v>
-      </c>
-      <c r="I8">
-        <v>0.96</v>
-      </c>
-      <c r="J8">
-        <f>I8</f>
-        <v>0.96</v>
-      </c>
-      <c r="K8">
-        <f>J8</f>
-        <v>0.96</v>
-      </c>
-      <c r="L8">
-        <v>0.41000000000000003</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.38950000000000001</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="1"/>
-        <v>0.40897500000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.58116666666666705</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E9" s="5">
-        <f>1-SUM(B9:D9)</f>
-        <v>0.28955877192982415</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.83189521212688999</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.728630952922109</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.91911786269154205</v>
-      </c>
-      <c r="I9">
-        <v>0.96</v>
-      </c>
-      <c r="J9">
-        <f>I9</f>
-        <v>0.96</v>
-      </c>
-      <c r="K9">
-        <f>J9</f>
-        <v>0.96</v>
-      </c>
-      <c r="L9">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.65265000000000006</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.68528250000000013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.63514285714285701</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E10" s="5">
-        <f>1-SUM(B10:D10)</f>
-        <v>0.2355825814536342</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.86647849943728605</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.798711411553652</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.93320551184110001</v>
-      </c>
-      <c r="I10">
-        <v>0.96</v>
-      </c>
-      <c r="J10">
-        <f>I10</f>
-        <v>0.96</v>
-      </c>
-      <c r="K10">
-        <f>J10</f>
-        <v>0.96</v>
-      </c>
-      <c r="L10">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.65454999999999997</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="1"/>
-        <v>0.68727749999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.60775000000000001</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E11" s="5">
-        <f>1-SUM(B11:D11)</f>
-        <v>0.2629754385964912</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.87628666807477895</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.82164901777605304</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.92672222108191904</v>
-      </c>
-      <c r="I11">
-        <v>0.96</v>
-      </c>
-      <c r="J11">
-        <f>I11</f>
-        <v>0.96</v>
-      </c>
-      <c r="K11">
-        <f>J11</f>
-        <v>0.96</v>
-      </c>
-      <c r="L11">
-        <v>0.875</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.83124999999999993</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" si="1"/>
-        <v>0.87281249999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.64549999999999996</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E12" s="5">
-        <f>1-SUM(B12:D12)</f>
-        <v>0.22522543859649125</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.88357443560006599</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.87638256944854098</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.88754064915738595</v>
-      </c>
-      <c r="I12">
-        <v>0.96</v>
-      </c>
-      <c r="J12">
-        <f>I12</f>
-        <v>0.96</v>
-      </c>
-      <c r="K12">
-        <f>J12</f>
-        <v>0.96</v>
-      </c>
-      <c r="L12">
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.83600000000000008</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.87780000000000014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.59750000000000003</v>
-      </c>
-      <c r="C13">
-        <v>0.02</v>
-      </c>
-      <c r="D13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E13">
-        <v>0.39</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.89406068804716599</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.88848179487901502</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.89984662185865405</v>
-      </c>
-      <c r="I13">
-        <v>0.96</v>
-      </c>
-      <c r="J13">
-        <f>I13</f>
-        <v>0.96</v>
-      </c>
-      <c r="K13">
-        <f>J13</f>
-        <v>0.96</v>
-      </c>
-      <c r="L13">
-        <v>0.82</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.77899999999999991</v>
-      </c>
-      <c r="N13" s="5">
-        <f t="shared" si="1"/>
-        <v>0.81794999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.50649999999999995</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D14" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E14" s="5">
-        <f>1-SUM(B14:D14)</f>
-        <v>0.36422543859649126</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.91096396752038999</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.88923165310114005</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.93012436788075004</v>
-      </c>
-      <c r="I14">
-        <v>0.96</v>
-      </c>
-      <c r="J14">
-        <f>I14</f>
-        <v>0.96</v>
-      </c>
-      <c r="K14">
-        <f>J14</f>
-        <v>0.96</v>
-      </c>
-      <c r="L14">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.65170000000000006</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" si="1"/>
-        <v>0.68428500000000014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="C15" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E15" s="5">
-        <f>1-SUM(B15:D15)</f>
-        <v>0.2317254385964912</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.940853784627664</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.92878014366974804</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.94963209364332202</v>
-      </c>
-      <c r="I15">
-        <v>0.96</v>
-      </c>
-      <c r="J15">
-        <f>I15</f>
-        <v>0.96</v>
-      </c>
-      <c r="K15">
-        <f>J15</f>
-        <v>0.96</v>
-      </c>
-      <c r="L15">
-        <v>0.68000000000000016</v>
-      </c>
-      <c r="M15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.64600000000000013</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.67830000000000013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C16">
-        <v>0.08</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0.622</v>
-      </c>
-      <c r="G16" s="5">
-        <f>F16*0.95</f>
-        <v>0.59089999999999998</v>
-      </c>
-      <c r="H16" s="5">
-        <f>G16*1.05</f>
-        <v>0.62044500000000002</v>
-      </c>
-      <c r="I16">
-        <v>0.96</v>
-      </c>
-      <c r="J16">
-        <f>I16</f>
-        <v>0.96</v>
-      </c>
-      <c r="K16">
-        <f>J16</f>
-        <v>0.96</v>
-      </c>
-      <c r="L16">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="M16" s="5">
-        <f t="shared" si="0"/>
-        <v>0.57379999999999998</v>
-      </c>
-      <c r="N16" s="5">
-        <f t="shared" si="1"/>
-        <v>0.60248999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="C17">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D17">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="F17">
-        <v>0.63000000000000012</v>
-      </c>
-      <c r="G17" s="5">
-        <f>F17*0.95</f>
-        <v>0.59850000000000003</v>
-      </c>
-      <c r="H17" s="5">
-        <f>G17*1.05</f>
-        <v>0.62842500000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.96</v>
-      </c>
-      <c r="J17">
-        <f>I17</f>
-        <v>0.96</v>
-      </c>
-      <c r="K17">
-        <f>J17</f>
-        <v>0.96</v>
-      </c>
-      <c r="L17">
-        <v>0.65000000000000013</v>
-      </c>
-      <c r="M17" s="5">
-        <f t="shared" si="0"/>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="N17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.64837500000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>0.42</v>
-      </c>
-      <c r="C18">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D18">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="F18">
-        <v>0.63000000000000012</v>
-      </c>
-      <c r="G18" s="5">
-        <f>F18*0.95</f>
-        <v>0.59850000000000003</v>
-      </c>
-      <c r="H18" s="5">
-        <f>G18*1.05</f>
-        <v>0.62842500000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.96</v>
-      </c>
-      <c r="J18">
-        <f>I18</f>
-        <v>0.96</v>
-      </c>
-      <c r="K18">
-        <f>J18</f>
-        <v>0.96</v>
-      </c>
-      <c r="L18">
-        <v>0.65000000000000013</v>
-      </c>
-      <c r="M18" s="5">
-        <f t="shared" si="0"/>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="N18" s="5">
-        <f t="shared" si="1"/>
-        <v>0.64837500000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>0.23</v>
-      </c>
-      <c r="C19">
-        <v>0.01</v>
-      </c>
-      <c r="D19">
-        <v>0.31</v>
-      </c>
-      <c r="E19">
-        <v>0.45</v>
-      </c>
-      <c r="F19">
-        <v>0.8</v>
-      </c>
-      <c r="G19" s="5">
-        <f>F19*0.95</f>
-        <v>0.76</v>
-      </c>
-      <c r="H19" s="5">
-        <f>G19*1.05</f>
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="I19">
-        <v>0.96</v>
-      </c>
-      <c r="J19">
-        <f>I19</f>
-        <v>0.96</v>
-      </c>
-      <c r="K19">
-        <f>J19</f>
-        <v>0.96</v>
-      </c>
-      <c r="L19">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.55099999999999993</v>
-      </c>
-      <c r="N19" s="5">
-        <f t="shared" si="1"/>
-        <v>0.57855000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="C20">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D20">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E20">
-        <f>1-SUM(B20:D20)</f>
-        <v>0.21199999999999997</v>
-      </c>
-      <c r="F20">
-        <v>0.81</v>
-      </c>
-      <c r="G20" s="5">
-        <f>F20*0.95</f>
-        <v>0.76949999999999996</v>
-      </c>
-      <c r="H20" s="5">
-        <f>G20*1.05</f>
-        <v>0.807975</v>
-      </c>
-      <c r="I20">
-        <v>0.96</v>
-      </c>
-      <c r="J20">
-        <f>I20</f>
-        <v>0.96</v>
-      </c>
-      <c r="K20">
-        <f>J20</f>
-        <v>0.96</v>
-      </c>
-      <c r="L20">
-        <v>0.72</v>
-      </c>
-      <c r="M20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.68399999999999994</v>
-      </c>
-      <c r="N20" s="5">
-        <f t="shared" si="1"/>
-        <v>0.71819999999999995</v>
-      </c>
-    </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>0.48</v>
-      </c>
-      <c r="C21">
-        <v>0.04</v>
-      </c>
-      <c r="D21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E21">
-        <v>0.41</v>
-      </c>
-      <c r="F21">
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="G21" s="5">
-        <f>F21*0.95</f>
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="H21" s="5">
-        <f>G21*1.05</f>
-        <v>0.81795000000000007</v>
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.53783333300000002</v>
+      </c>
+      <c r="C21" s="5">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <f>1-SUM(B21:D21)</f>
+        <v>0.33289210559649118</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.71652838200000002</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.36916719799999997</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.94720059899999998</v>
       </c>
       <c r="I21">
         <v>0.96</v>
@@ -2193,43 +2209,43 @@
         <v>0.96</v>
       </c>
       <c r="L21">
-        <v>0.7</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.66499999999999992</v>
+        <f>L21*0.95</f>
+        <v>0.65265000000000006</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="1"/>
-        <v>0.69824999999999993</v>
+        <f>M21*1.05</f>
+        <v>0.68528250000000013</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>2.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>3.9E-2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="F22">
-        <v>0.84000000000000008</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.84588505065844988</v>
       </c>
       <c r="G22" s="5">
         <f>F22*0.95</f>
-        <v>0.79800000000000004</v>
+        <v>0.80359079812552736</v>
       </c>
       <c r="H22" s="5">
         <f>G22*1.05</f>
-        <v>0.83790000000000009</v>
+        <v>0.84377033803180379</v>
       </c>
       <c r="I22">
         <v>0.96</v>
@@ -2242,44 +2258,43 @@
         <f>J22</f>
         <v>0.96</v>
       </c>
-      <c r="L22">
-        <v>0.7</v>
+      <c r="L22" s="5">
+        <v>0.71148214285714262</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.66499999999999992</v>
+        <f>L22*0.95</f>
+        <v>0.67590803571428548</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="1"/>
-        <v>0.69824999999999993</v>
+        <f>M22*1.05</f>
+        <v>0.70970343749999976</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>0.3</v>
-      </c>
-      <c r="C23">
-        <v>0.02</v>
-      </c>
-      <c r="D23">
-        <v>0.04</v>
-      </c>
-      <c r="E23">
-        <v>0.65</v>
-      </c>
-      <c r="F23">
-        <v>0.86</v>
-      </c>
-      <c r="G23" s="5">
-        <f>F23*0.95</f>
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H23" s="5">
-        <f>G23*1.05</f>
-        <v>0.85785</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.62166666699999995</v>
+      </c>
+      <c r="C23" s="5">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <f>1-SUM(B23:D23)</f>
+        <v>0.24905877159649126</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.59214926700000003</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.42585267799999998</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.70163032999999997</v>
       </c>
       <c r="I23">
         <v>0.96</v>
@@ -2293,43 +2308,43 @@
         <v>0.96</v>
       </c>
       <c r="L23">
-        <v>0.6</v>
+        <v>0.68900000000000006</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
+        <f>L23*0.95</f>
+        <v>0.65455000000000008</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="1"/>
-        <v>0.59849999999999992</v>
+        <f>M23*1.05</f>
+        <v>0.6872775000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>0.377</v>
+        <v>0.23</v>
       </c>
       <c r="C24">
-        <v>1.7999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D24">
-        <v>7.6999999999999999E-2</v>
+        <v>0.31</v>
       </c>
       <c r="E24">
-        <v>0.52800000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="F24">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="G24" s="5">
         <f>F24*0.95</f>
-        <v>0.82650000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="H24" s="5">
         <f>G24*1.05</f>
-        <v>0.86782500000000007</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="I24">
         <v>0.96</v>
@@ -2343,43 +2358,43 @@
         <v>0.96</v>
       </c>
       <c r="L24">
-        <v>0.61</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.57950000000000002</v>
+        <f>L24*0.95</f>
+        <v>0.55099999999999993</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="1"/>
-        <v>0.60847499999999999</v>
+        <f>M24*1.05</f>
+        <v>0.57855000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>0.32400000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="C25">
-        <v>2.1999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D25">
-        <v>7.0999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E25">
-        <v>0.58299999999999996</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F25">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="G25" s="5">
         <f>F25*0.95</f>
-        <v>0.82650000000000001</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="H25" s="5">
         <f>G25*1.05</f>
-        <v>0.86782500000000007</v>
+        <v>0.87780000000000002</v>
       </c>
       <c r="I25">
         <v>0.96</v>
@@ -2393,43 +2408,42 @@
         <v>0.96</v>
       </c>
       <c r="L25">
-        <v>0.61</v>
+        <v>0.77</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.57950000000000002</v>
+        <f>L25*0.95</f>
+        <v>0.73149999999999993</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="1"/>
-        <v>0.60847499999999999</v>
+        <f>M25*1.05</f>
+        <v>0.76807499999999995</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>0.84</v>
-      </c>
-      <c r="C26">
-        <v>0.05</v>
-      </c>
-      <c r="D26">
-        <v>0.04</v>
-      </c>
-      <c r="E26">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F26">
-        <v>0.88</v>
-      </c>
-      <c r="G26" s="5">
-        <f>F26*0.95</f>
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="H26" s="5">
-        <f>G26*1.05</f>
-        <v>0.87780000000000002</v>
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.72292857099999996</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <f>1-SUM(B26:D26)</f>
+        <v>0.14779686759649124</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.90379253800000003</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.63667054599999995</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1.6348451470000001</v>
       </c>
       <c r="I26">
         <v>0.96</v>
@@ -2443,43 +2457,43 @@
         <v>0.96</v>
       </c>
       <c r="L26">
-        <v>0.77</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.73149999999999993</v>
+        <f>L26*0.95</f>
+        <v>0.65454999999999997</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="1"/>
-        <v>0.76807499999999995</v>
+        <f>M26*1.05</f>
+        <v>0.68727749999999999</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B27">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.84</v>
-      </c>
-      <c r="F27">
-        <v>0.9</v>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.84588505065844988</v>
       </c>
       <c r="G27" s="5">
         <f>F27*0.95</f>
-        <v>0.85499999999999998</v>
+        <v>0.80359079812552736</v>
       </c>
       <c r="H27" s="5">
         <f>G27*1.05</f>
-        <v>0.89775000000000005</v>
+        <v>0.84377033803180379</v>
       </c>
       <c r="I27">
         <v>0.96</v>
@@ -2492,44 +2506,43 @@
         <f>J27</f>
         <v>0.96</v>
       </c>
-      <c r="L27">
-        <v>0.8</v>
+      <c r="L27" s="5">
+        <v>0.71148214285714262</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.76</v>
+        <f>L27*0.95</f>
+        <v>0.67590803571428548</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="1"/>
-        <v>0.79800000000000004</v>
+        <f>M27*1.05</f>
+        <v>0.70970343749999976</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>0.85</v>
-      </c>
-      <c r="C28">
-        <v>0.02</v>
-      </c>
-      <c r="D28">
-        <v>0.01</v>
-      </c>
-      <c r="E28">
-        <v>0.12</v>
-      </c>
-      <c r="F28">
-        <v>0.94</v>
-      </c>
-      <c r="G28" s="5">
-        <f>F28*0.95</f>
-        <v>0.8929999999999999</v>
-      </c>
-      <c r="H28" s="5">
-        <f>G28*1.05</f>
-        <v>0.93764999999999998</v>
+        <v>52</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="E28" s="5">
+        <f>1-SUM(B28:D28)</f>
+        <v>5.2225438596491203E-2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.92645719800000004</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.90755127400000002</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.93688355000000001</v>
       </c>
       <c r="I28">
         <v>0.96</v>
@@ -2543,43 +2556,43 @@
         <v>0.96</v>
       </c>
       <c r="L28">
-        <v>0.86</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.81699999999999995</v>
+        <f>L28*0.95</f>
+        <v>0.83600000000000008</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="1"/>
-        <v>0.85785</v>
+        <f>M28*1.05</f>
+        <v>0.87780000000000014</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.24</v>
-      </c>
-      <c r="F29">
-        <v>0.94</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.84588505065844988</v>
       </c>
       <c r="G29" s="5">
         <f>F29*0.95</f>
-        <v>0.8929999999999999</v>
+        <v>0.80359079812552736</v>
       </c>
       <c r="H29" s="5">
         <f>G29*1.05</f>
-        <v>0.93764999999999998</v>
+        <v>0.84377033803180379</v>
       </c>
       <c r="I29">
         <v>0.96</v>
@@ -2592,44 +2605,43 @@
         <f>J29</f>
         <v>0.96</v>
       </c>
-      <c r="L29">
-        <v>0.83</v>
+      <c r="L29" s="5">
+        <v>0.71148214285714262</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.78849999999999998</v>
+        <f>L29*0.95</f>
+        <v>0.67590803571428548</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="1"/>
-        <v>0.82792500000000002</v>
+        <f>M29*1.05</f>
+        <v>0.70970343749999976</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0.84588505065844988</v>
-      </c>
-      <c r="G30" s="5">
-        <f>F30*0.95</f>
-        <v>0.80359079812552736</v>
-      </c>
-      <c r="H30" s="5">
-        <f>G30*1.05</f>
-        <v>0.84377033803180379</v>
+        <v>23</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="D30" s="5">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="E30" s="5">
+        <f>1-SUM(B30:D30)</f>
+        <v>0.1117254385964912</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.95743720300000001</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.92355465400000003</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.98207198299999998</v>
       </c>
       <c r="I30">
         <v>0.96</v>
@@ -2642,45 +2654,42 @@
         <f>J30</f>
         <v>0.96</v>
       </c>
-      <c r="L30" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L30">
+        <v>0.68000000000000016</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67590803571428548</v>
+        <f>L30*0.95</f>
+        <v>0.64600000000000013</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70970343749999976</v>
+        <f>M30*1.05</f>
+        <v>0.67830000000000013</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.54631047778486397</v>
-      </c>
-      <c r="C31" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D31" s="5">
-        <v>7.6272807017543853E-2</v>
-      </c>
-      <c r="E31" s="5">
-        <f>1-SUM(B31:D31)</f>
-        <v>0.32441496081162735</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0.84588505065844988</v>
-      </c>
-      <c r="G31" s="5">
-        <f>F31*0.95</f>
-        <v>0.80359079812552736</v>
-      </c>
-      <c r="H31" s="5">
-        <f>G31*1.05</f>
-        <v>0.84377033803180379</v>
+        <v>24</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.02</v>
+      </c>
+      <c r="D31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.39</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.89593621899999998</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.87892045299999999</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.91358346499999998</v>
       </c>
       <c r="I31">
         <v>0.96</v>
@@ -2693,21 +2702,21 @@
         <f>J31</f>
         <v>0.96</v>
       </c>
-      <c r="L31" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L31">
+        <v>0.82</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67590803571428548</v>
+        <f>L31*0.95</f>
+        <v>0.77899999999999991</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70970343749999976</v>
+        <f>M31*1.05</f>
+        <v>0.81794999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2747,40 +2756,39 @@
         <v>0.71148214285714262</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="0"/>
+        <f>L32*0.95</f>
         <v>0.67590803571428548</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="1"/>
+        <f>M32*1.05</f>
         <v>0.70970343749999976</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <v>0.84588505065844988</v>
-      </c>
-      <c r="G33" s="5">
-        <f>F33*0.95</f>
-        <v>0.80359079812552736</v>
-      </c>
-      <c r="H33" s="5">
-        <f>G33*1.05</f>
-        <v>0.84377033803180379</v>
+        <v>26</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.66174999999999995</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="E33" s="5">
+        <f>1-SUM(B33:D33)</f>
+        <v>0.20897543859649126</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.86798476099999999</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.76744743500000001</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.95396578300000001</v>
       </c>
       <c r="I33">
         <v>0.96</v>
@@ -2793,44 +2801,45 @@
         <f>J33</f>
         <v>0.96</v>
       </c>
-      <c r="L33" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L33">
+        <v>0.875</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67590803571428548</v>
+        <f>L33*0.95</f>
+        <v>0.83124999999999993</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70970343749999976</v>
+        <f>M33*1.05</f>
+        <v>0.87281249999999999</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0.84588505065844988</v>
+        <f>1-SUM(B34:D34)</f>
+        <v>0.21199999999999997</v>
+      </c>
+      <c r="F34">
+        <v>0.81</v>
       </c>
       <c r="G34" s="5">
         <f>F34*0.95</f>
-        <v>0.80359079812552736</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="H34" s="5">
         <f>G34*1.05</f>
-        <v>0.84377033803180379</v>
+        <v>0.807975</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -2843,44 +2852,44 @@
         <f>J34</f>
         <v>0.96</v>
       </c>
-      <c r="L34" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L34">
+        <v>0.72</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67590803571428548</v>
+        <f>L34*0.95</f>
+        <v>0.68399999999999994</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70970343749999976</v>
+        <f>M34*1.05</f>
+        <v>0.71819999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0.84588505065844988</v>
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F35">
+        <v>0.87</v>
       </c>
       <c r="G35" s="5">
         <f>F35*0.95</f>
-        <v>0.80359079812552736</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="H35" s="5">
         <f>G35*1.05</f>
-        <v>0.84377033803180379</v>
+        <v>0.86782500000000007</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -2893,44 +2902,44 @@
         <f>J35</f>
         <v>0.96</v>
       </c>
-      <c r="L35" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L35">
+        <v>0.61</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67590803571428548</v>
+        <f>L35*0.95</f>
+        <v>0.57950000000000002</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70970343749999976</v>
+        <f>M35*1.05</f>
+        <v>0.60847499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.377</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0.84588505065844988</v>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.87</v>
       </c>
       <c r="G36" s="5">
         <f>F36*0.95</f>
-        <v>0.80359079812552736</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="H36" s="5">
         <f>G36*1.05</f>
-        <v>0.84377033803180379</v>
+        <v>0.86782500000000007</v>
       </c>
       <c r="I36">
         <v>0.96</v>
@@ -2943,44 +2952,44 @@
         <f>J36</f>
         <v>0.96</v>
       </c>
-      <c r="L36" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L36">
+        <v>0.61</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67590803571428548</v>
+        <f>L36*0.95</f>
+        <v>0.57950000000000002</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70970343749999976</v>
+        <f>M36*1.05</f>
+        <v>0.60847499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0.84588505065844988</v>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F37">
+        <v>0.84000000000000008</v>
       </c>
       <c r="G37" s="5">
         <f>F37*0.95</f>
-        <v>0.80359079812552736</v>
+        <v>0.79800000000000004</v>
       </c>
       <c r="H37" s="5">
         <f>G37*1.05</f>
-        <v>0.84377033803180379</v>
+        <v>0.83790000000000009</v>
       </c>
       <c r="I37">
         <v>0.96</v>
@@ -2993,44 +3002,44 @@
         <f>J37</f>
         <v>0.96</v>
       </c>
-      <c r="L37" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L37">
+        <v>0.7</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67590803571428548</v>
+        <f>L37*0.95</f>
+        <v>0.66499999999999992</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70970343749999976</v>
+        <f>M37*1.05</f>
+        <v>0.69824999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0.84588505065844988</v>
+        <v>0.84</v>
+      </c>
+      <c r="F38">
+        <v>0.9</v>
       </c>
       <c r="G38" s="5">
         <f>F38*0.95</f>
-        <v>0.80359079812552736</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="H38" s="5">
         <f>G38*1.05</f>
-        <v>0.84377033803180379</v>
+        <v>0.89775000000000005</v>
       </c>
       <c r="I38">
         <v>0.96</v>
@@ -3043,44 +3052,44 @@
         <f>J38</f>
         <v>0.96</v>
       </c>
-      <c r="L38" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L38">
+        <v>0.8</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67590803571428548</v>
+        <f>L38*0.95</f>
+        <v>0.76</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70970343749999976</v>
+        <f>M38*1.05</f>
+        <v>0.79800000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0.84588505065844988</v>
+        <v>0.12</v>
+      </c>
+      <c r="F39">
+        <v>0.94</v>
       </c>
       <c r="G39" s="5">
         <f>F39*0.95</f>
-        <v>0.80359079812552736</v>
+        <v>0.8929999999999999</v>
       </c>
       <c r="H39" s="5">
         <f>G39*1.05</f>
-        <v>0.84377033803180379</v>
+        <v>0.93764999999999998</v>
       </c>
       <c r="I39">
         <v>0.96</v>
@@ -3093,44 +3102,44 @@
         <f>J39</f>
         <v>0.96</v>
       </c>
-      <c r="L39" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L39">
+        <v>0.86</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67590803571428548</v>
+        <f>L39*0.95</f>
+        <v>0.81699999999999995</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70970343749999976</v>
+        <f>M39*1.05</f>
+        <v>0.85785</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0.84588505065844988</v>
+        <v>0.41</v>
+      </c>
+      <c r="F40">
+        <v>0.82000000000000006</v>
       </c>
       <c r="G40" s="5">
         <f>F40*0.95</f>
-        <v>0.80359079812552736</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="H40" s="5">
         <f>G40*1.05</f>
-        <v>0.84377033803180379</v>
+        <v>0.81795000000000007</v>
       </c>
       <c r="I40">
         <v>0.96</v>
@@ -3143,22 +3152,22 @@
         <f>J40</f>
         <v>0.96</v>
       </c>
-      <c r="L40" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L40">
+        <v>0.7</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67590803571428548</v>
+        <f>L40*0.95</f>
+        <v>0.66499999999999992</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="1"/>
-        <v>0.70970343749999976</v>
+        <f>M40*1.05</f>
+        <v>0.69824999999999993</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N40" xr:uid="{FEB86C80-6855-4296-9746-1E92B0D65FFA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N40">
-      <sortCondition ref="M1:M40"/>
+      <sortCondition ref="A1:A40"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3169,7 +3178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA17DA89-E85F-4597-B94B-473613FC79D7}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>

--- a/data/_general_data/diets/all_ingredients.xlsx
+++ b/data/_general_data/diets/all_ingredients.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treimer\Documents\R-temp-files\local_to_global_mariculture_modelling\data\_general_data\diets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C101E4C-72B9-4071-857E-D349E2443E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98475AB-134A-487C-8ACB-AD58AC4BF895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14430" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{EACE1C46-B374-4940-8FA1-58EDCA6D9B2B}"/>
+    <workbookView xWindow="-28920" yWindow="-1560" windowWidth="29040" windowHeight="15720" xr2:uid="{EACE1C46-B374-4940-8FA1-58EDCA6D9B2B}"/>
   </bookViews>
   <sheets>
     <sheet name="all_ingredients" sheetId="2" r:id="rId1"/>
     <sheet name="sources" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_ingredients!$A$1:$N$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_ingredients!$A$1:$O$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sources!$A$1:$C$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t>ingredient</t>
   </si>
@@ -245,13 +245,31 @@
   </si>
   <si>
     <t>All grey-highlighted cells are placeholder values</t>
+  </si>
+  <si>
+    <t>meat-meal</t>
+  </si>
+  <si>
+    <t>in_use</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Lipid and ash concentrations from https://www.sciencedirect.com/science/article/pii/S0044848619316102</t>
+  </si>
+  <si>
+    <t>Proximate composition and digestibility from https://www.sciencedirect.com/science/article/pii/S0044848621007961</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,13 +408,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -711,7 +722,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -755,6 +766,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -763,11 +775,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -808,6 +820,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1142,202 +1155,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB86C80-6855-4296-9746-1E92B0D65FFA}">
-  <dimension ref="A1:N40"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>71</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.84588505065844988</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <f>F2*0.95</f>
-        <v>0.80359079812552736</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <f>G2*1.05</f>
-        <v>0.84377033803180379</v>
-      </c>
-      <c r="I2">
-        <v>0.96</v>
+        <f>G2*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <f>H2*1.05</f>
+        <v>0</v>
       </c>
       <c r="J2">
-        <f>I2</f>
         <v>0.96</v>
       </c>
       <c r="K2">
         <f>J2</f>
         <v>0.96</v>
       </c>
-      <c r="L2" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L2">
+        <f>K2</f>
+        <v>0.96</v>
       </c>
       <c r="M2" s="5">
-        <f>L2*0.95</f>
-        <v>0.67590803571428548</v>
+        <v>0</v>
       </c>
       <c r="N2" s="5">
-        <f>M2*1.05</f>
-        <v>0.70970343749999976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <f>M2*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <f>N2*1.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.54631047778486397</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>7.6272807017543853E-2</v>
-      </c>
-      <c r="E3" s="5">
-        <f>1-SUM(B3:D3)</f>
-        <v>0.32441496081162735</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.84588505065844988</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <f>F3*0.95</f>
-        <v>0.80359079812552736</v>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
-        <f>G3*1.05</f>
-        <v>0.84377033803180379</v>
-      </c>
-      <c r="I3">
-        <v>0.96</v>
+        <f>G3*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3*1.05</f>
+        <v>0</v>
       </c>
       <c r="J3">
-        <f>I3</f>
         <v>0.96</v>
       </c>
       <c r="K3">
         <f>J3</f>
         <v>0.96</v>
       </c>
-      <c r="L3" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L3">
+        <f>K3</f>
+        <v>0.96</v>
       </c>
       <c r="M3" s="5">
-        <f>L3*0.95</f>
-        <v>0.67590803571428548</v>
+        <v>0</v>
       </c>
       <c r="N3" s="5">
-        <f>M3*1.05</f>
-        <v>0.70970343749999976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <f>M3*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <f>N3*1.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.56774999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.12</v>
-      </c>
-      <c r="D4">
-        <v>0.13</v>
-      </c>
       <c r="E4">
-        <f>1-SUM(B4:D4)</f>
-        <v>0.18225000000000002</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.798073386</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.34427008599999998</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.96128135800000003</v>
-      </c>
-      <c r="I4">
-        <v>0.96</v>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <f>G4*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f>H4*1.05</f>
+        <v>0</v>
       </c>
       <c r="J4">
-        <f>I4</f>
         <v>0.96</v>
       </c>
       <c r="K4">
@@ -1345,48 +1367,52 @@
         <v>0.96</v>
       </c>
       <c r="L4">
-        <v>0.41000000000000003</v>
+        <f>K4</f>
+        <v>0.96</v>
       </c>
       <c r="M4" s="5">
-        <f>L4*0.95</f>
-        <v>0.38950000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5">
-        <f>M4*1.05</f>
-        <v>0.40897500000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <f>M4*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <f>N4*1.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.32650000000000001</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E5" s="5">
-        <f>1-SUM(B5:D5)</f>
-        <v>0.54422543859649108</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.96631291399999997</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.85393499399999995</v>
-      </c>
-      <c r="H5" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0.96</v>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f>G5*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <f>H5*1.05</f>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f>I5</f>
         <v>0.96</v>
       </c>
       <c r="K5">
@@ -1394,149 +1420,152 @@
         <v>0.96</v>
       </c>
       <c r="L5">
-        <v>0.68600000000000005</v>
+        <f>K5</f>
+        <v>0.96</v>
       </c>
       <c r="M5" s="5">
-        <f>L5*0.95</f>
-        <v>0.65170000000000006</v>
+        <v>0</v>
       </c>
       <c r="N5" s="5">
-        <f>M5*1.05</f>
-        <v>0.68428500000000014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <f>M5*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <f>N5*1.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.84588505065844988</v>
-      </c>
-      <c r="G6" s="5">
-        <f>F6*0.95</f>
-        <v>0.80359079812552736</v>
-      </c>
-      <c r="H6" s="5">
-        <f>G6*1.05</f>
-        <v>0.84377033803180379</v>
-      </c>
-      <c r="I6">
-        <v>0.96</v>
-      </c>
-      <c r="J6">
-        <f>I6</f>
-        <v>0.96</v>
-      </c>
-      <c r="K6">
-        <f>J6</f>
-        <v>0.96</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0.71148214285714262</v>
-      </c>
-      <c r="M6" s="5">
-        <f>L6*0.95</f>
-        <v>0.67590803571428548</v>
-      </c>
-      <c r="N6" s="5">
-        <f>M6*1.05</f>
-        <v>0.70970343749999976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.84588505065844988</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f>F7*0.95</f>
-        <v>0.80359079812552736</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
-        <f>G7*1.05</f>
-        <v>0.84377033803180379</v>
-      </c>
-      <c r="I7">
-        <v>0.96</v>
+        <f>G7*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f>H7*1.05</f>
+        <v>0</v>
       </c>
       <c r="J7">
-        <f>I7</f>
         <v>0.96</v>
       </c>
       <c r="K7">
         <f>J7</f>
         <v>0.96</v>
       </c>
-      <c r="L7" s="5">
-        <v>0.71148214285714262</v>
+      <c r="L7">
+        <f>K7</f>
+        <v>0.96</v>
       </c>
       <c r="M7" s="5">
-        <f>L7*0.95</f>
-        <v>0.67590803571428548</v>
+        <v>0</v>
       </c>
       <c r="N7" s="5">
-        <f>M7*1.05</f>
-        <v>0.70970343749999976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <f>M7*0.95</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f>N7*1.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0.68</v>
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
       <c r="C8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13</v>
       </c>
       <c r="D8">
         <v>0.02</v>
       </c>
       <c r="E8">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="F8">
-        <v>0.94</v>
-      </c>
-      <c r="G8" s="5">
-        <f>F8*0.95</f>
-        <v>0.8929999999999999</v>
-      </c>
-      <c r="H8" s="5">
-        <f>G8*1.05</f>
-        <v>0.93764999999999998</v>
-      </c>
-      <c r="I8">
-        <v>0.96</v>
+        <v>0.84</v>
+      </c>
+      <c r="G8">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="4">
+        <f>G8*0.95</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <f>H8*1.05</f>
+        <v>0.89775000000000005</v>
       </c>
       <c r="J8">
-        <f>I8</f>
         <v>0.96</v>
       </c>
       <c r="K8">
@@ -1544,49 +1573,57 @@
         <v>0.96</v>
       </c>
       <c r="L8">
-        <v>0.83</v>
-      </c>
-      <c r="M8" s="5">
-        <f>L8*0.95</f>
-        <v>0.78849999999999998</v>
-      </c>
-      <c r="N8" s="5">
-        <f>M8*1.05</f>
-        <v>0.82792500000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K8</f>
+        <v>0.96</v>
+      </c>
+      <c r="M8">
+        <v>0.8</v>
+      </c>
+      <c r="N8" s="4">
+        <f>M8*0.95</f>
+        <v>0.76</v>
+      </c>
+      <c r="O8" s="4">
+        <f>N8*1.05</f>
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0.3</v>
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
       </c>
       <c r="C9">
-        <v>0.02</v>
+        <f>AVERAGE(420.2,405.3,420.2,403.8,390.7,468.4)/1000</f>
+        <v>0.41809999999999997</v>
       </c>
       <c r="D9">
-        <v>0.04</v>
+        <f>AVERAGE(175.4,153.9,171.8,132.3,106.7,100.1)/1000</f>
+        <v>0.14003333333333337</v>
       </c>
       <c r="E9">
-        <v>0.65</v>
+        <f>AVERAGE(28.6,37.6,28,37.3,25.9,29.7)/1000</f>
+        <v>3.1183333333333334E-2</v>
       </c>
       <c r="F9">
-        <v>0.86</v>
-      </c>
-      <c r="G9" s="5">
-        <f>F9*0.95</f>
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H9" s="5">
-        <f>G9*1.05</f>
-        <v>0.85785</v>
+        <f>1-SUM(C9:E9)</f>
+        <v>0.41068333333333329</v>
+      </c>
+      <c r="G9">
+        <f>AVERAGE(89.5,89.3,87.9,88.2,89.3,90.1)/100</f>
+        <v>0.89050000000000007</v>
+      </c>
+      <c r="H9">
+        <f>MIN(89.5,89.3,87.9,88.2,89.3,90.1)/100</f>
+        <v>0.879</v>
       </c>
       <c r="I9">
-        <v>0.96</v>
+        <f>MAX(89.5,89.3,87.9,88.2,89.3,90.1)/100</f>
+        <v>0.90099999999999991</v>
       </c>
       <c r="J9">
-        <f>I9</f>
         <v>0.96</v>
       </c>
       <c r="K9">
@@ -1594,48 +1631,53 @@
         <v>0.96</v>
       </c>
       <c r="L9">
-        <v>0.6</v>
-      </c>
-      <c r="M9" s="5">
-        <f>L9*0.95</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N9" s="5">
-        <f>M9*1.05</f>
-        <v>0.59849999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K9</f>
+        <v>0.96</v>
+      </c>
+      <c r="M9">
+        <f>AVERAGE(79.7,80.2,80,80,81.2,77.4)/100</f>
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="N9">
+        <f>MIN(79.7,80.2,80,80,81.2,77.4)/100</f>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="O9">
+        <f>MAX(79.7,80.2,80,80,81.2,77.4)/100</f>
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.84332031299999999</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7.6272807017543853E-2</v>
-      </c>
-      <c r="E10" s="5">
-        <f>1-SUM(B10:D10)</f>
-        <v>2.7405125596491331E-2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.86404060623452394</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.432006395470731</v>
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>0.42</v>
+      </c>
+      <c r="D10">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.63000000000000012</v>
       </c>
       <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0.96</v>
+        <f>G10*0.95</f>
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="I10" s="4">
+        <f>H10*1.05</f>
+        <v>0.62842500000000001</v>
       </c>
       <c r="J10">
-        <f>I10</f>
         <v>0.96</v>
       </c>
       <c r="K10">
@@ -1643,410 +1685,431 @@
         <v>0.96</v>
       </c>
       <c r="L10">
-        <v>0.78</v>
-      </c>
-      <c r="M10" s="5">
-        <f>L10*0.95</f>
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="N10" s="5">
-        <f>M10*1.05</f>
-        <v>0.77805000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K10</f>
+        <v>0.96</v>
+      </c>
+      <c r="M10">
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="N10" s="4">
+        <f>M10*0.95</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="O10" s="4">
+        <f>N10*1.05</f>
+        <v>0.64837500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.53783333333333327</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <f>1-SUM(C11:E11)</f>
+        <v>0.33289210526315793</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.83030542718534828</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.72499626396843553</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.91940803995423626</v>
+      </c>
+      <c r="J11">
+        <v>0.96</v>
+      </c>
+      <c r="K11">
+        <f>J11</f>
+        <v>0.96</v>
+      </c>
+      <c r="L11">
+        <f>K11</f>
+        <v>0.96</v>
+      </c>
+      <c r="M11">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="N11" s="4">
+        <f>M11*0.95</f>
+        <v>0.65265000000000006</v>
+      </c>
+      <c r="O11" s="4">
+        <f>N11*1.05</f>
+        <v>0.68528250000000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.54631047778486397</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7.6272807017543853E-2</v>
+      </c>
+      <c r="F12" s="4">
+        <f>1-SUM(C12:E12)</f>
+        <v>0.32441496081162735</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.84588505065844988</v>
+      </c>
+      <c r="H12" s="4">
+        <f>G12*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="I12" s="4">
+        <f>H12*1.05</f>
+        <v>0.84377033803180379</v>
+      </c>
+      <c r="J12">
+        <v>0.96</v>
+      </c>
+      <c r="K12">
+        <f>J12</f>
+        <v>0.96</v>
+      </c>
+      <c r="L12">
+        <f>K12</f>
+        <v>0.96</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="N12" s="4">
+        <f>M12*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="O12" s="4">
+        <f>N12*1.05</f>
+        <v>0.70970343749999976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.55099999999999993</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <f>1-SUM(C13:E13)</f>
+        <v>0.31972543859649127</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.87768651689443133</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.86929340553071388</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.8855203903303821</v>
+      </c>
+      <c r="J13">
+        <v>0.96</v>
+      </c>
+      <c r="K13">
+        <f>J13</f>
+        <v>0.96</v>
+      </c>
+      <c r="L13">
+        <f>K13</f>
+        <v>0.96</v>
+      </c>
+      <c r="M13">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="N13">
+        <f>M13-3*(2.16/100)</f>
+        <v>0.5292</v>
+      </c>
+      <c r="O13">
+        <f>M13+3*(2.16/100)</f>
+        <v>0.65879999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.66174999999999995</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <f>1-SUM(C14:E14)</f>
+        <v>0.20897543859649126</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.87600843567991216</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.82061188906613214</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.92710478819527709</v>
+      </c>
+      <c r="J14">
+        <v>0.96</v>
+      </c>
+      <c r="K14">
+        <f>J14</f>
+        <v>0.96</v>
+      </c>
+      <c r="L14">
+        <f>K14</f>
+        <v>0.96</v>
+      </c>
+      <c r="M14">
+        <v>0.875</v>
+      </c>
+      <c r="N14" s="4">
+        <f>M14*0.95</f>
+        <v>0.83124999999999993</v>
+      </c>
+      <c r="O14" s="4">
+        <f>N14*1.05</f>
+        <v>0.87281249999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15">
+        <f>70.6/100</f>
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D15">
+        <f>9.9/100</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E15">
+        <f>18.4/100</f>
+        <v>0.184</v>
+      </c>
+      <c r="F15">
+        <f>1-SUM(C15:E15)</f>
+        <v>1.1000000000000121E-2</v>
+      </c>
+      <c r="G15">
+        <f>87.7/100</f>
+        <v>0.877</v>
+      </c>
+      <c r="H15">
+        <f>83.1/100</f>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="I15">
+        <f>91.7/100</f>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J15">
+        <v>0.96</v>
+      </c>
+      <c r="K15">
+        <f>J15</f>
+        <v>0.96</v>
+      </c>
+      <c r="L15">
+        <f>K15</f>
+        <v>0.96</v>
+      </c>
+      <c r="M15">
+        <f>81.7/100</f>
+        <v>0.81700000000000006</v>
+      </c>
+      <c r="N15">
+        <f>71.8/100</f>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="O15">
+        <f>91.6/100</f>
+        <v>0.91599999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.72292857142857125</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <f>1-SUM(C16:E16)</f>
+        <v>0.14779686716791995</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.86610883281803486</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.79747397943132614</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.93373585381326751</v>
+      </c>
+      <c r="J16">
+        <v>0.96</v>
+      </c>
+      <c r="K16">
+        <f>J16</f>
+        <v>0.96</v>
+      </c>
+      <c r="L16">
+        <f>K16</f>
+        <v>0.96</v>
+      </c>
+      <c r="M16">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="N16" s="4">
+        <f>M16*0.95</f>
+        <v>0.65454999999999997</v>
+      </c>
+      <c r="O16" s="4">
+        <f>N16*1.05</f>
+        <v>0.68727749999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
         <f>75.4/100</f>
         <v>0.754</v>
       </c>
-      <c r="C11">
+      <c r="D17">
         <f>11/100</f>
         <v>0.11</v>
       </c>
-      <c r="D11">
+      <c r="E17">
         <f>13.6/100</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="E11">
-        <f>1-SUM(B11:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="F17">
+        <f>1-SUM(C17:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
         <f>90.7/100</f>
         <v>0.90700000000000003</v>
       </c>
-      <c r="G11">
+      <c r="H17">
         <f>87.5/100</f>
         <v>0.875</v>
       </c>
-      <c r="H11">
+      <c r="I17">
         <f>93.6/100</f>
         <v>0.93599999999999994</v>
       </c>
-      <c r="I11">
-        <v>0.96</v>
-      </c>
-      <c r="J11">
-        <f>I11</f>
-        <v>0.96</v>
-      </c>
-      <c r="K11">
-        <f>J11</f>
-        <v>0.96</v>
-      </c>
-      <c r="L11">
+      <c r="J17">
+        <v>0.96</v>
+      </c>
+      <c r="K17">
+        <f>J17</f>
+        <v>0.96</v>
+      </c>
+      <c r="L17">
+        <f>K17</f>
+        <v>0.96</v>
+      </c>
+      <c r="M17">
         <f>83.3/100</f>
         <v>0.83299999999999996</v>
       </c>
-      <c r="M11">
+      <c r="N17">
         <f>74.5/100</f>
         <v>0.745</v>
       </c>
-      <c r="N11">
+      <c r="O17">
         <f>92.6/100</f>
         <v>0.92599999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <f>70.6/100</f>
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="C12">
-        <f>9.9/100</f>
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="D12">
-        <f>18.4/100</f>
-        <v>0.184</v>
-      </c>
-      <c r="E12">
-        <f>1-SUM(B12:D12)</f>
-        <v>1.1000000000000121E-2</v>
-      </c>
-      <c r="F12">
-        <f>87.7/100</f>
-        <v>0.877</v>
-      </c>
-      <c r="G12">
-        <f>83.1/100</f>
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="H12">
-        <f>91.7/100</f>
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="I12">
-        <v>0.96</v>
-      </c>
-      <c r="J12">
-        <f>I12</f>
-        <v>0.96</v>
-      </c>
-      <c r="K12">
-        <f>J12</f>
-        <v>0.96</v>
-      </c>
-      <c r="L12">
-        <f>81.7/100</f>
-        <v>0.81700000000000006</v>
-      </c>
-      <c r="M12">
-        <f>71.8/100</f>
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="N12">
-        <f>91.6/100</f>
-        <v>0.91599999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.84588505065844988</v>
-      </c>
-      <c r="G13" s="5">
-        <f>F13*0.95</f>
-        <v>0.80359079812552736</v>
-      </c>
-      <c r="H13" s="5">
-        <f>G13*1.05</f>
-        <v>0.84377033803180379</v>
-      </c>
-      <c r="I13">
-        <v>0.96</v>
-      </c>
-      <c r="J13">
-        <f>I13</f>
-        <v>0.96</v>
-      </c>
-      <c r="K13">
-        <f>J13</f>
-        <v>0.96</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0.71148214285714262</v>
-      </c>
-      <c r="M13" s="5">
-        <f>L13*0.95</f>
-        <v>0.67590803571428548</v>
-      </c>
-      <c r="N13" s="5">
-        <f>M13*1.05</f>
-        <v>0.70970343749999976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.84588505065844988</v>
-      </c>
-      <c r="G14" s="5">
-        <f>F14*0.95</f>
-        <v>0.80359079812552736</v>
-      </c>
-      <c r="H14" s="5">
-        <f>G14*1.05</f>
-        <v>0.84377033803180379</v>
-      </c>
-      <c r="I14">
-        <v>0.96</v>
-      </c>
-      <c r="J14">
-        <f>I14</f>
-        <v>0.96</v>
-      </c>
-      <c r="K14">
-        <f>J14</f>
-        <v>0.96</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0.71148214285714262</v>
-      </c>
-      <c r="M14" s="5">
-        <f>L14*0.95</f>
-        <v>0.67590803571428548</v>
-      </c>
-      <c r="N14" s="5">
-        <f>M14*1.05</f>
-        <v>0.70970343749999976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>0.42</v>
-      </c>
-      <c r="C15">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D15">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="F15">
-        <v>0.63000000000000012</v>
-      </c>
-      <c r="G15" s="5">
-        <f>F15*0.95</f>
-        <v>0.59850000000000003</v>
-      </c>
-      <c r="H15" s="5">
-        <f>G15*1.05</f>
-        <v>0.62842500000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.96</v>
-      </c>
-      <c r="J15">
-        <f>I15</f>
-        <v>0.96</v>
-      </c>
-      <c r="K15">
-        <f>J15</f>
-        <v>0.96</v>
-      </c>
-      <c r="L15">
-        <v>0.65000000000000013</v>
-      </c>
-      <c r="M15" s="5">
-        <f>L15*0.95</f>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="N15" s="5">
-        <f>M15*1.05</f>
-        <v>0.64837500000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="C16">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D16">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="F16">
-        <v>0.63000000000000012</v>
-      </c>
-      <c r="G16" s="5">
-        <f>F16*0.95</f>
-        <v>0.59850000000000003</v>
-      </c>
-      <c r="H16" s="5">
-        <f>G16*1.05</f>
-        <v>0.62842500000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.96</v>
-      </c>
-      <c r="J16">
-        <f>I16</f>
-        <v>0.96</v>
-      </c>
-      <c r="K16">
-        <f>J16</f>
-        <v>0.96</v>
-      </c>
-      <c r="L16">
-        <v>0.65000000000000013</v>
-      </c>
-      <c r="M16" s="5">
-        <f>L16*0.95</f>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="N16" s="5">
-        <f>M16*1.05</f>
-        <v>0.64837500000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="C17">
-        <v>0.08</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0.622</v>
-      </c>
-      <c r="G17" s="5">
-        <f>F17*0.95</f>
-        <v>0.59089999999999998</v>
-      </c>
-      <c r="H17" s="5">
-        <f>G17*1.05</f>
-        <v>0.62044500000000002</v>
-      </c>
-      <c r="I17">
-        <v>0.96</v>
-      </c>
-      <c r="J17">
-        <f>I17</f>
-        <v>0.96</v>
-      </c>
-      <c r="K17">
-        <f>J17</f>
-        <v>0.96</v>
-      </c>
-      <c r="L17">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="M17" s="5">
-        <f>L17*0.95</f>
-        <v>0.57379999999999998</v>
-      </c>
-      <c r="N17" s="5">
-        <f>M17*1.05</f>
-        <v>0.60248999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="C18" s="5">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.81849999999999989</v>
+      </c>
+      <c r="D18" s="4">
         <v>5.3001754385964918E-2</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="4">
         <v>7.6272807017543895E-2</v>
       </c>
-      <c r="E18" s="5">
-        <f>1-SUM(B18:D18)</f>
-        <v>0.31972543859649116</v>
-      </c>
       <c r="F18" s="4">
-        <v>0.89096484899999995</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.86241600900000004</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.91761146400000004</v>
-      </c>
-      <c r="I18">
-        <v>0.96</v>
+        <f>1-SUM(C18:E18)</f>
+        <v>5.2225438596491314E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.88381879361953863</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.87650883500487808</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.88785013351798359</v>
       </c>
       <c r="J18">
-        <f>I18</f>
         <v>0.96</v>
       </c>
       <c r="K18">
@@ -2054,104 +2117,106 @@
         <v>0.96</v>
       </c>
       <c r="L18">
-        <v>0.59399999999999997</v>
+        <f>K18</f>
+        <v>0.96</v>
       </c>
       <c r="M18">
-        <f>L18-3*(2.16/100)</f>
-        <v>0.5292</v>
-      </c>
-      <c r="N18">
-        <f>L18+3*(2.16/100)</f>
-        <v>0.65879999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="N18" s="4">
+        <f>M18*0.95</f>
+        <v>0.83600000000000008</v>
+      </c>
+      <c r="O18" s="4">
+        <f>N18*1.05</f>
+        <v>0.87780000000000014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.84588505065844988</v>
-      </c>
-      <c r="G19" s="5">
-        <f>F19*0.95</f>
-        <v>0.80359079812552736</v>
-      </c>
-      <c r="H19" s="5">
-        <f>G19*1.05</f>
-        <v>0.84377033803180379</v>
-      </c>
-      <c r="I19">
-        <v>0.96</v>
+        <v>0.04</v>
+      </c>
+      <c r="F19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.88</v>
+      </c>
+      <c r="H19" s="4">
+        <f>G19*0.95</f>
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="I19" s="4">
+        <f>H19*1.05</f>
+        <v>0.87780000000000002</v>
       </c>
       <c r="J19">
-        <f>I19</f>
         <v>0.96</v>
       </c>
       <c r="K19">
         <f>J19</f>
         <v>0.96</v>
       </c>
-      <c r="L19" s="5">
-        <v>0.71148214285714262</v>
-      </c>
-      <c r="M19" s="5">
-        <f>L19*0.95</f>
-        <v>0.67590803571428548</v>
-      </c>
-      <c r="N19" s="5">
-        <f>M19*1.05</f>
-        <v>0.70970343749999976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <f>K19</f>
+        <v>0.96</v>
+      </c>
+      <c r="M19">
+        <v>0.77</v>
+      </c>
+      <c r="N19" s="4">
+        <f>M19*0.95</f>
+        <v>0.73149999999999993</v>
+      </c>
+      <c r="O19" s="4">
+        <f>N19*1.05</f>
+        <v>0.76807499999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20">
-        <f>AVERAGE(420.2,405.3,420.2,403.8,390.7,468.4)/1000</f>
-        <v>0.41809999999999997</v>
-      </c>
-      <c r="C20">
-        <f>AVERAGE(175.4,153.9,171.8,132.3,106.7,100.1)/1000</f>
-        <v>0.14003333333333337</v>
-      </c>
-      <c r="D20">
-        <f>AVERAGE(28.6,37.6,28,37.3,25.9,29.7)/1000</f>
-        <v>3.1183333333333334E-2</v>
-      </c>
-      <c r="E20">
-        <f>1-SUM(B20:D20)</f>
-        <v>0.41068333333333329</v>
-      </c>
-      <c r="F20">
-        <f>AVERAGE(89.5,89.3,87.9,88.2,89.3,90.1)/100</f>
-        <v>0.89050000000000007</v>
-      </c>
-      <c r="G20">
-        <f>MIN(89.5,89.3,87.9,88.2,89.3,90.1)/100</f>
-        <v>0.879</v>
-      </c>
-      <c r="H20">
-        <f>MAX(89.5,89.3,87.9,88.2,89.3,90.1)/100</f>
-        <v>0.90099999999999991</v>
-      </c>
-      <c r="I20">
-        <v>0.96</v>
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.84332031250000017</v>
+      </c>
+      <c r="D20" s="5">
+        <f>68.2/1000</f>
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <f>18.4/1000</f>
+        <v>1.84E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <f>1-SUM(C20:E20)</f>
+        <v>7.0079687499999821E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.86865425652074602</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.7583166684730156</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.9473983023876531</v>
       </c>
       <c r="J20">
-        <f>I20</f>
         <v>0.96</v>
       </c>
       <c r="K20">
@@ -2159,49 +2224,56 @@
         <v>0.96</v>
       </c>
       <c r="L20">
-        <f>AVERAGE(79.7,80.2,80,80,81.2,77.4)/100</f>
-        <v>0.79749999999999999</v>
+        <f>K20</f>
+        <v>0.96</v>
       </c>
       <c r="M20">
-        <f>MIN(79.7,80.2,80,80,81.2,77.4)/100</f>
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="N20">
-        <f>MAX(79.7,80.2,80,80,81.2,77.4)/100</f>
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.78</v>
+      </c>
+      <c r="N20" s="4">
+        <f>M20*0.95</f>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="O20" s="4">
+        <f>N20*1.05</f>
+        <v>0.77805000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.53783333300000002</v>
-      </c>
-      <c r="C21" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E21" s="5">
-        <f>1-SUM(B21:D21)</f>
-        <v>0.33289210559649118</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.71652838200000002</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.36916719799999997</v>
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <f>766/1000</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D21">
+        <f>74/1000</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E21">
+        <f>7/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F21">
+        <f>1-SUM(C21:E21)</f>
+        <v>0.15300000000000002</v>
+      </c>
+      <c r="G21">
+        <v>0.89</v>
       </c>
       <c r="H21" s="4">
-        <v>0.94720059899999998</v>
-      </c>
-      <c r="I21">
-        <v>0.96</v>
+        <f>G21*0.95</f>
+        <v>0.84549999999999992</v>
+      </c>
+      <c r="I21" s="4">
+        <f>H21*1.05</f>
+        <v>0.88777499999999998</v>
       </c>
       <c r="J21">
-        <f>I21</f>
         <v>0.96</v>
       </c>
       <c r="K21">
@@ -2209,98 +2281,104 @@
         <v>0.96</v>
       </c>
       <c r="L21">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="M21" s="5">
-        <f>L21*0.95</f>
-        <v>0.65265000000000006</v>
-      </c>
-      <c r="N21" s="5">
-        <f>M21*1.05</f>
-        <v>0.68528250000000013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K21</f>
+        <v>0.96</v>
+      </c>
+      <c r="M21">
+        <v>0.75</v>
+      </c>
+      <c r="N21" s="4">
+        <f>M21*0.95</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="O21" s="4">
+        <f>N21*1.05</f>
+        <v>0.74812499999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="5">
-        <v>0.84588505065844988</v>
-      </c>
-      <c r="G22" s="5">
-        <f>F22*0.95</f>
-        <v>0.80359079812552736</v>
-      </c>
-      <c r="H22" s="5">
-        <f>G22*1.05</f>
-        <v>0.84377033803180379</v>
-      </c>
-      <c r="I22">
-        <v>0.96</v>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.622</v>
+      </c>
+      <c r="H22" s="4">
+        <f>G22*0.95</f>
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="I22" s="4">
+        <f>H22*1.05</f>
+        <v>0.62044500000000002</v>
       </c>
       <c r="J22">
-        <f>I22</f>
         <v>0.96</v>
       </c>
       <c r="K22">
         <f>J22</f>
         <v>0.96</v>
       </c>
-      <c r="L22" s="5">
-        <v>0.71148214285714262</v>
-      </c>
-      <c r="M22" s="5">
-        <f>L22*0.95</f>
-        <v>0.67590803571428548</v>
-      </c>
-      <c r="N22" s="5">
-        <f>M22*1.05</f>
-        <v>0.70970343749999976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f>K22</f>
+        <v>0.96</v>
+      </c>
+      <c r="M22">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="N22" s="4">
+        <f>M22*0.95</f>
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="O22" s="4">
+        <f>N22*1.05</f>
+        <v>0.60248999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.62166666699999995</v>
-      </c>
-      <c r="C23" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E23" s="5">
-        <f>1-SUM(B23:D23)</f>
-        <v>0.24905877159649126</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.59214926700000003</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.42585267799999998</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.70163032999999997</v>
-      </c>
-      <c r="I23">
-        <v>0.96</v>
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.56775000000000009</v>
+      </c>
+      <c r="D23">
+        <v>0.12</v>
+      </c>
+      <c r="E23">
+        <v>0.13</v>
+      </c>
+      <c r="F23">
+        <f>1-SUM(C23:E23)</f>
+        <v>0.18224999999999991</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.86264614774680892</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.71937060515209228</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.9363167126299663</v>
       </c>
       <c r="J23">
-        <f>I23</f>
         <v>0.96</v>
       </c>
       <c r="K23">
@@ -2308,49 +2386,51 @@
         <v>0.96</v>
       </c>
       <c r="L23">
-        <v>0.68900000000000006</v>
-      </c>
-      <c r="M23" s="5">
-        <f>L23*0.95</f>
-        <v>0.65455000000000008</v>
-      </c>
-      <c r="N23" s="5">
-        <f>M23*1.05</f>
-        <v>0.6872775000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K23</f>
+        <v>0.96</v>
+      </c>
+      <c r="M23">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="N23" s="4">
+        <f>M23*0.95</f>
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="O23" s="4">
+        <f>N23*1.05</f>
+        <v>0.40897500000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>0.23</v>
-      </c>
-      <c r="C24">
-        <v>0.01</v>
-      </c>
-      <c r="D24">
-        <v>0.31</v>
-      </c>
-      <c r="E24">
-        <v>0.45</v>
-      </c>
-      <c r="F24">
-        <v>0.8</v>
-      </c>
-      <c r="G24" s="5">
-        <f>F24*0.95</f>
-        <v>0.76</v>
-      </c>
-      <c r="H24" s="5">
-        <f>G24*1.05</f>
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="I24">
-        <v>0.96</v>
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.32650000000000001</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="F24" s="4">
+        <f>1-SUM(C24:E24)</f>
+        <v>0.54422543859649108</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.91108708069547573</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.88845319139472811</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.93104235892070819</v>
       </c>
       <c r="J24">
-        <f>I24</f>
         <v>0.96</v>
       </c>
       <c r="K24">
@@ -2358,49 +2438,52 @@
         <v>0.96</v>
       </c>
       <c r="L24">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M24" s="5">
-        <f>L24*0.95</f>
-        <v>0.55099999999999993</v>
-      </c>
-      <c r="N24" s="5">
-        <f>M24*1.05</f>
-        <v>0.57855000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K24</f>
+        <v>0.96</v>
+      </c>
+      <c r="M24">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="N24" s="4">
+        <f>M24*0.95</f>
+        <v>0.65170000000000006</v>
+      </c>
+      <c r="O24" s="4">
+        <f>N24*1.05</f>
+        <v>0.68428500000000014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>0.84</v>
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
       </c>
       <c r="C25">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.88</v>
-      </c>
-      <c r="G25" s="5">
-        <f>F25*0.95</f>
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="H25" s="5">
-        <f>G25*1.05</f>
-        <v>0.87780000000000002</v>
-      </c>
-      <c r="I25">
-        <v>0.96</v>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.84588505065844988</v>
+      </c>
+      <c r="H25" s="4">
+        <f>G25*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="I25" s="4">
+        <f>H25*1.05</f>
+        <v>0.84377033803180379</v>
       </c>
       <c r="J25">
-        <f>I25</f>
         <v>0.96</v>
       </c>
       <c r="K25">
@@ -2408,48 +2491,52 @@
         <v>0.96</v>
       </c>
       <c r="L25">
-        <v>0.77</v>
-      </c>
-      <c r="M25" s="5">
-        <f>L25*0.95</f>
-        <v>0.73149999999999993</v>
-      </c>
-      <c r="N25" s="5">
-        <f>M25*1.05</f>
-        <v>0.76807499999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K25</f>
+        <v>0.96</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="N25" s="4">
+        <f>M25*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="O25" s="4">
+        <f>N25*1.05</f>
+        <v>0.70970343749999976</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.72292857099999996</v>
-      </c>
-      <c r="C26" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D26" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E26" s="5">
-        <f>1-SUM(B26:D26)</f>
-        <v>0.14779686759649124</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.90379253800000003</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.63667054599999995</v>
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <v>0.68</v>
+      </c>
+      <c r="D26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.02</v>
+      </c>
+      <c r="F26">
+        <v>0.24</v>
+      </c>
+      <c r="G26">
+        <v>0.94</v>
       </c>
       <c r="H26" s="4">
-        <v>1.6348451470000001</v>
-      </c>
-      <c r="I26">
-        <v>0.96</v>
+        <f>G26*0.95</f>
+        <v>0.8929999999999999</v>
+      </c>
+      <c r="I26" s="4">
+        <f>H26*1.05</f>
+        <v>0.93764999999999998</v>
       </c>
       <c r="J26">
-        <f>I26</f>
         <v>0.96</v>
       </c>
       <c r="K26">
@@ -2457,98 +2544,105 @@
         <v>0.96</v>
       </c>
       <c r="L26">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="M26" s="5">
-        <f>L26*0.95</f>
-        <v>0.65454999999999997</v>
-      </c>
-      <c r="N26" s="5">
-        <f>M26*1.05</f>
-        <v>0.68727749999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K26</f>
+        <v>0.96</v>
+      </c>
+      <c r="M26">
+        <v>0.83</v>
+      </c>
+      <c r="N26" s="4">
+        <f>M26*0.95</f>
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="O26" s="4">
+        <f>N26*1.05</f>
+        <v>0.82792500000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0.84588505065844988</v>
-      </c>
-      <c r="G27" s="5">
-        <f>F27*0.95</f>
-        <v>0.80359079812552736</v>
-      </c>
-      <c r="H27" s="5">
-        <f>G27*1.05</f>
-        <v>0.84377033803180379</v>
-      </c>
-      <c r="I27">
-        <v>0.96</v>
+        <v>0.04</v>
+      </c>
+      <c r="F27">
+        <v>0.65</v>
+      </c>
+      <c r="G27">
+        <v>0.86</v>
+      </c>
+      <c r="H27" s="4">
+        <f>G27*0.95</f>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="I27" s="4">
+        <f>H27*1.05</f>
+        <v>0.85785</v>
       </c>
       <c r="J27">
-        <f>I27</f>
         <v>0.96</v>
       </c>
       <c r="K27">
         <f>J27</f>
         <v>0.96</v>
       </c>
-      <c r="L27" s="5">
-        <v>0.71148214285714262</v>
-      </c>
-      <c r="M27" s="5">
-        <f>L27*0.95</f>
-        <v>0.67590803571428548</v>
-      </c>
-      <c r="N27" s="5">
-        <f>M27*1.05</f>
-        <v>0.70970343749999976</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f>K27</f>
+        <v>0.96</v>
+      </c>
+      <c r="M27">
+        <v>0.6</v>
+      </c>
+      <c r="N27" s="4">
+        <f>M27*0.95</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O27" s="4">
+        <f>N27*1.05</f>
+        <v>0.59849999999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.81850000000000001</v>
-      </c>
-      <c r="C28" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D28" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E28" s="5">
-        <f>1-SUM(B28:D28)</f>
-        <v>5.2225438596491203E-2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.92645719800000004</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.90755127400000002</v>
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D28">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="G28">
+        <v>0.63000000000000012</v>
       </c>
       <c r="H28" s="4">
-        <v>0.93688355000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.96</v>
+        <f>G28*0.95</f>
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="I28" s="4">
+        <f>H28*1.05</f>
+        <v>0.62842500000000001</v>
       </c>
       <c r="J28">
-        <f>I28</f>
         <v>0.96</v>
       </c>
       <c r="K28">
@@ -2556,98 +2650,104 @@
         <v>0.96</v>
       </c>
       <c r="L28">
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="M28" s="5">
-        <f>L28*0.95</f>
-        <v>0.83600000000000008</v>
-      </c>
-      <c r="N28" s="5">
-        <f>M28*1.05</f>
-        <v>0.87780000000000014</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K28</f>
+        <v>0.96</v>
+      </c>
+      <c r="M28">
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="N28" s="4">
+        <f>M28*0.95</f>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="O28" s="4">
+        <f>N28*1.05</f>
+        <v>0.64837500000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
         <v>0.84588505065844988</v>
       </c>
-      <c r="G29" s="5">
-        <f>F29*0.95</f>
+      <c r="H29" s="4">
+        <f>G29*0.95</f>
         <v>0.80359079812552736</v>
       </c>
-      <c r="H29" s="5">
-        <f>G29*1.05</f>
+      <c r="I29" s="4">
+        <f>H29*1.05</f>
         <v>0.84377033803180379</v>
       </c>
-      <c r="I29">
-        <v>0.96</v>
-      </c>
       <c r="J29">
-        <f>I29</f>
         <v>0.96</v>
       </c>
       <c r="K29">
         <f>J29</f>
         <v>0.96</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29">
+        <f>K29</f>
+        <v>0.96</v>
+      </c>
+      <c r="M29" s="4">
         <v>0.71148214285714262</v>
       </c>
-      <c r="M29" s="5">
-        <f>L29*0.95</f>
+      <c r="N29" s="4">
+        <f>M29*0.95</f>
         <v>0.67590803571428548</v>
       </c>
-      <c r="N29" s="5">
-        <f>M29*1.05</f>
+      <c r="O29" s="4">
+        <f>N29*1.05</f>
         <v>0.70970343749999976</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="C30" s="5">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.56188888888888899</v>
+      </c>
+      <c r="D30" s="4">
         <v>5.3001754385964918E-2</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="4">
         <v>7.6272807017543895E-2</v>
       </c>
-      <c r="E30" s="5">
-        <f>1-SUM(B30:D30)</f>
-        <v>0.1117254385964912</v>
-      </c>
       <c r="F30" s="4">
-        <v>0.95743720300000001</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.92355465400000003</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0.98207198299999998</v>
-      </c>
-      <c r="I30">
-        <v>0.96</v>
+        <f>1-SUM(C30:E30)</f>
+        <v>0.30883654970760221</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.81159790994043479</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.70014233740626763</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.93324792899801945</v>
       </c>
       <c r="J30">
-        <f>I30</f>
         <v>0.96</v>
       </c>
       <c r="K30">
@@ -2655,47 +2755,51 @@
         <v>0.96</v>
       </c>
       <c r="L30">
-        <v>0.68000000000000016</v>
-      </c>
-      <c r="M30" s="5">
-        <f>L30*0.95</f>
-        <v>0.64600000000000013</v>
-      </c>
-      <c r="N30" s="5">
-        <f>M30*1.05</f>
-        <v>0.67830000000000013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K30</f>
+        <v>0.96</v>
+      </c>
+      <c r="M30">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="N30" s="4">
+        <f>M30*0.95</f>
+        <v>0.65265000000000006</v>
+      </c>
+      <c r="O30" s="4">
+        <f>N30*1.05</f>
+        <v>0.68528250000000013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="C31">
-        <v>0.02</v>
-      </c>
-      <c r="D31">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E31">
-        <v>0.39</v>
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.62166666666666659</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>7.6272807017543895E-2</v>
       </c>
       <c r="F31" s="4">
-        <v>0.89593621899999998</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.87892045299999999</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0.91358346499999998</v>
-      </c>
-      <c r="I31">
-        <v>0.96</v>
+        <f>1-SUM(C31:E31)</f>
+        <v>0.24905877192982462</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.78638081783306735</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.7121352290987818</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.84199992299760551</v>
       </c>
       <c r="J31">
-        <f>I31</f>
         <v>0.96</v>
       </c>
       <c r="K31">
@@ -2703,98 +2807,105 @@
         <v>0.96</v>
       </c>
       <c r="L31">
-        <v>0.82</v>
-      </c>
-      <c r="M31" s="5">
-        <f>L31*0.95</f>
-        <v>0.77899999999999991</v>
-      </c>
-      <c r="N31" s="5">
-        <f>M31*1.05</f>
-        <v>0.81794999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K31</f>
+        <v>0.96</v>
+      </c>
+      <c r="M31">
+        <v>0.68900000000000006</v>
+      </c>
+      <c r="N31" s="4">
+        <f>M31*0.95</f>
+        <v>0.65455000000000008</v>
+      </c>
+      <c r="O31" s="4">
+        <f>N31*1.05</f>
+        <v>0.6872775000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0.84588505065844988</v>
-      </c>
-      <c r="G32" s="5">
-        <f>F32*0.95</f>
-        <v>0.80359079812552736</v>
-      </c>
-      <c r="H32" s="5">
-        <f>G32*1.05</f>
-        <v>0.84377033803180379</v>
-      </c>
-      <c r="I32">
-        <v>0.96</v>
+        <v>0.31</v>
+      </c>
+      <c r="F32">
+        <v>0.45</v>
+      </c>
+      <c r="G32">
+        <v>0.8</v>
+      </c>
+      <c r="H32" s="4">
+        <f>G32*0.95</f>
+        <v>0.76</v>
+      </c>
+      <c r="I32" s="4">
+        <f>H32*1.05</f>
+        <v>0.79800000000000004</v>
       </c>
       <c r="J32">
-        <f>I32</f>
         <v>0.96</v>
       </c>
       <c r="K32">
         <f>J32</f>
         <v>0.96</v>
       </c>
-      <c r="L32" s="5">
-        <v>0.71148214285714262</v>
-      </c>
-      <c r="M32" s="5">
-        <f>L32*0.95</f>
-        <v>0.67590803571428548</v>
-      </c>
-      <c r="N32" s="5">
-        <f>M32*1.05</f>
-        <v>0.70970343749999976</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f>K32</f>
+        <v>0.96</v>
+      </c>
+      <c r="M32">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N32" s="4">
+        <f>M32*0.95</f>
+        <v>0.55099999999999993</v>
+      </c>
+      <c r="O32" s="4">
+        <f>N32*1.05</f>
+        <v>0.57855000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.66174999999999995</v>
-      </c>
-      <c r="C33" s="5">
-        <v>5.3001754385964918E-2</v>
-      </c>
-      <c r="D33" s="5">
-        <v>7.6272807017543895E-2</v>
-      </c>
-      <c r="E33" s="5">
-        <f>1-SUM(B33:D33)</f>
-        <v>0.20897543859649126</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.86798476099999999</v>
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>0.76744743500000001</v>
+        <v>0.84588505065844988</v>
       </c>
       <c r="H33" s="4">
-        <v>0.95396578300000001</v>
-      </c>
-      <c r="I33">
-        <v>0.96</v>
+        <f>G33*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="I33" s="4">
+        <f>H33*1.05</f>
+        <v>0.84377033803180379</v>
       </c>
       <c r="J33">
-        <f>I33</f>
         <v>0.96</v>
       </c>
       <c r="K33">
@@ -2802,50 +2913,51 @@
         <v>0.96</v>
       </c>
       <c r="L33">
-        <v>0.875</v>
-      </c>
-      <c r="M33" s="5">
-        <f>L33*0.95</f>
-        <v>0.83124999999999993</v>
-      </c>
-      <c r="N33" s="5">
-        <f>M33*1.05</f>
-        <v>0.87281249999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K33</f>
+        <v>0.96</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="N33" s="4">
+        <f>M33*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="O33" s="4">
+        <f>N33*1.05</f>
+        <v>0.70970343749999976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="C34">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D34">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E34">
-        <f>1-SUM(B34:D34)</f>
-        <v>0.21199999999999997</v>
-      </c>
-      <c r="F34">
-        <v>0.81</v>
-      </c>
-      <c r="G34" s="5">
-        <f>F34*0.95</f>
-        <v>0.76949999999999996</v>
-      </c>
-      <c r="H34" s="5">
-        <f>G34*1.05</f>
-        <v>0.807975</v>
-      </c>
-      <c r="I34">
-        <v>0.96</v>
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5.3001754385964918E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>7.6272807017543895E-2</v>
+      </c>
+      <c r="F34" s="4">
+        <f>1-SUM(C34:E34)</f>
+        <v>0.1117254385964912</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.94144621422710895</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.92915488186404305</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.95038279881441345</v>
       </c>
       <c r="J34">
-        <f>I34</f>
         <v>0.96</v>
       </c>
       <c r="K34">
@@ -2853,49 +2965,50 @@
         <v>0.96</v>
       </c>
       <c r="L34">
-        <v>0.72</v>
-      </c>
-      <c r="M34" s="5">
-        <f>L34*0.95</f>
-        <v>0.68399999999999994</v>
-      </c>
-      <c r="N34" s="5">
-        <f>M34*1.05</f>
-        <v>0.71819999999999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K34</f>
+        <v>0.96</v>
+      </c>
+      <c r="M34">
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="N34" s="4">
+        <f>M34*0.95</f>
+        <v>0.64600000000000013</v>
+      </c>
+      <c r="O34" s="4">
+        <f>N34*1.05</f>
+        <v>0.67830000000000013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="C35">
-        <v>2.1999999999999999E-2</v>
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.65300000000000002</v>
       </c>
       <c r="D35">
-        <v>7.0999999999999994E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E35">
-        <v>0.58299999999999996</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F35">
-        <v>0.87</v>
-      </c>
-      <c r="G35" s="5">
-        <f>F35*0.95</f>
-        <v>0.82650000000000001</v>
-      </c>
-      <c r="H35" s="5">
-        <f>G35*1.05</f>
-        <v>0.86782500000000007</v>
-      </c>
-      <c r="I35">
-        <v>0.96</v>
+        <v>0.39</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.8937733673883973</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.88807945048616632</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.89967859362798408</v>
       </c>
       <c r="J35">
-        <f>I35</f>
         <v>0.96</v>
       </c>
       <c r="K35">
@@ -2903,49 +3016,52 @@
         <v>0.96</v>
       </c>
       <c r="L35">
-        <v>0.61</v>
-      </c>
-      <c r="M35" s="5">
-        <f>L35*0.95</f>
-        <v>0.57950000000000002</v>
-      </c>
-      <c r="N35" s="5">
-        <f>M35*1.05</f>
-        <v>0.60847499999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K35</f>
+        <v>0.96</v>
+      </c>
+      <c r="M35">
+        <v>0.82</v>
+      </c>
+      <c r="N35" s="4">
+        <f>M35*0.95</f>
+        <v>0.77899999999999991</v>
+      </c>
+      <c r="O35" s="4">
+        <f>N35*1.05</f>
+        <v>0.81794999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36">
-        <v>0.377</v>
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
       </c>
       <c r="C36">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>7.6999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0.52800000000000002</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.87</v>
-      </c>
-      <c r="G36" s="5">
-        <f>F36*0.95</f>
-        <v>0.82650000000000001</v>
-      </c>
-      <c r="H36" s="5">
-        <f>G36*1.05</f>
-        <v>0.86782500000000007</v>
-      </c>
-      <c r="I36">
-        <v>0.96</v>
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.84588505065844988</v>
+      </c>
+      <c r="H36" s="4">
+        <f>G36*0.95</f>
+        <v>0.80359079812552736</v>
+      </c>
+      <c r="I36" s="4">
+        <f>H36*1.05</f>
+        <v>0.84377033803180379</v>
       </c>
       <c r="J36">
-        <f>I36</f>
         <v>0.96</v>
       </c>
       <c r="K36">
@@ -2953,49 +3069,53 @@
         <v>0.96</v>
       </c>
       <c r="L36">
-        <v>0.61</v>
-      </c>
-      <c r="M36" s="5">
-        <f>L36*0.95</f>
-        <v>0.57950000000000002</v>
-      </c>
-      <c r="N36" s="5">
-        <f>M36*1.05</f>
-        <v>0.60847499999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K36</f>
+        <v>0.96</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0.71148214285714262</v>
+      </c>
+      <c r="N36" s="4">
+        <f>M36*0.95</f>
+        <v>0.67590803571428548</v>
+      </c>
+      <c r="O36" s="4">
+        <f>N36*1.05</f>
+        <v>0.70970343749999976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37">
-        <v>2.9000000000000001E-2</v>
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
       </c>
       <c r="C37">
-        <v>7.0000000000000001E-3</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D37">
-        <v>3.9E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E37">
-        <v>0.92500000000000004</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F37">
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="G37" s="5">
-        <f>F37*0.95</f>
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="H37" s="5">
-        <f>G37*1.05</f>
-        <v>0.83790000000000009</v>
-      </c>
-      <c r="I37">
-        <v>0.96</v>
+        <f>1-SUM(C37:E37)</f>
+        <v>0.21199999999999997</v>
+      </c>
+      <c r="G37">
+        <v>0.81</v>
+      </c>
+      <c r="H37" s="4">
+        <f>G37*0.95</f>
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="I37" s="4">
+        <f>H37*1.05</f>
+        <v>0.807975</v>
       </c>
       <c r="J37">
-        <f>I37</f>
         <v>0.96</v>
       </c>
       <c r="K37">
@@ -3003,49 +3123,52 @@
         <v>0.96</v>
       </c>
       <c r="L37">
-        <v>0.7</v>
-      </c>
-      <c r="M37" s="5">
-        <f>L37*0.95</f>
-        <v>0.66499999999999992</v>
-      </c>
-      <c r="N37" s="5">
-        <f>M37*1.05</f>
-        <v>0.69824999999999993</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K37</f>
+        <v>0.96</v>
+      </c>
+      <c r="M37">
+        <v>0.72</v>
+      </c>
+      <c r="N37" s="4">
+        <f>M37*0.95</f>
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="O37" s="4">
+        <f>N37*1.05</f>
+        <v>0.71819999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38">
-        <v>0.13</v>
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
       </c>
       <c r="C38">
-        <v>0.02</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="D38">
-        <v>0.02</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E38">
-        <v>0.84</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F38">
-        <v>0.9</v>
-      </c>
-      <c r="G38" s="5">
-        <f>F38*0.95</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="H38" s="5">
-        <f>G38*1.05</f>
-        <v>0.89775000000000005</v>
-      </c>
-      <c r="I38">
-        <v>0.96</v>
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="G38">
+        <v>0.87</v>
+      </c>
+      <c r="H38" s="4">
+        <f>G38*0.95</f>
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="I38" s="4">
+        <f>H38*1.05</f>
+        <v>0.86782500000000007</v>
       </c>
       <c r="J38">
-        <f>I38</f>
         <v>0.96</v>
       </c>
       <c r="K38">
@@ -3053,49 +3176,52 @@
         <v>0.96</v>
       </c>
       <c r="L38">
-        <v>0.8</v>
-      </c>
-      <c r="M38" s="5">
-        <f>L38*0.95</f>
-        <v>0.76</v>
-      </c>
-      <c r="N38" s="5">
-        <f>M38*1.05</f>
-        <v>0.79800000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K38</f>
+        <v>0.96</v>
+      </c>
+      <c r="M38">
+        <v>0.61</v>
+      </c>
+      <c r="N38" s="4">
+        <f>M38*0.95</f>
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="O38" s="4">
+        <f>N38*1.05</f>
+        <v>0.60847499999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39">
-        <v>0.85</v>
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
       </c>
       <c r="C39">
-        <v>0.02</v>
+        <v>0.377</v>
       </c>
       <c r="D39">
-        <v>0.01</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E39">
-        <v>0.12</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="F39">
-        <v>0.94</v>
-      </c>
-      <c r="G39" s="5">
-        <f>F39*0.95</f>
-        <v>0.8929999999999999</v>
-      </c>
-      <c r="H39" s="5">
-        <f>G39*1.05</f>
-        <v>0.93764999999999998</v>
-      </c>
-      <c r="I39">
-        <v>0.96</v>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G39">
+        <v>0.87</v>
+      </c>
+      <c r="H39" s="4">
+        <f>G39*0.95</f>
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="I39" s="4">
+        <f>H39*1.05</f>
+        <v>0.86782500000000007</v>
       </c>
       <c r="J39">
-        <f>I39</f>
         <v>0.96</v>
       </c>
       <c r="K39">
@@ -3103,49 +3229,52 @@
         <v>0.96</v>
       </c>
       <c r="L39">
-        <v>0.86</v>
-      </c>
-      <c r="M39" s="5">
-        <f>L39*0.95</f>
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="N39" s="5">
-        <f>M39*1.05</f>
-        <v>0.85785</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <f>K39</f>
+        <v>0.96</v>
+      </c>
+      <c r="M39">
+        <v>0.61</v>
+      </c>
+      <c r="N39" s="4">
+        <f>M39*0.95</f>
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="O39" s="4">
+        <f>N39*1.05</f>
+        <v>0.60847499999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40">
-        <v>0.48</v>
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
       </c>
       <c r="C40">
-        <v>0.04</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D40">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E40">
-        <v>0.41</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F40">
-        <v>0.82000000000000006</v>
-      </c>
-      <c r="G40" s="5">
-        <f>F40*0.95</f>
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="H40" s="5">
-        <f>G40*1.05</f>
-        <v>0.81795000000000007</v>
-      </c>
-      <c r="I40">
-        <v>0.96</v>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G40">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="H40" s="4">
+        <f>G40*0.95</f>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="I40" s="4">
+        <f>H40*1.05</f>
+        <v>0.83790000000000009</v>
       </c>
       <c r="J40">
-        <f>I40</f>
         <v>0.96</v>
       </c>
       <c r="K40">
@@ -3153,21 +3282,159 @@
         <v>0.96</v>
       </c>
       <c r="L40">
+        <f>K40</f>
+        <v>0.96</v>
+      </c>
+      <c r="M40">
         <v>0.7</v>
       </c>
-      <c r="M40" s="5">
-        <f>L40*0.95</f>
+      <c r="N40" s="4">
+        <f>M40*0.95</f>
         <v>0.66499999999999992</v>
       </c>
-      <c r="N40" s="5">
-        <f>M40*1.05</f>
+      <c r="O40" s="4">
+        <f>N40*1.05</f>
         <v>0.69824999999999993</v>
       </c>
     </row>
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41">
+        <v>0.48</v>
+      </c>
+      <c r="D41">
+        <v>0.04</v>
+      </c>
+      <c r="E41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.41</v>
+      </c>
+      <c r="G41">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="H41" s="4">
+        <f>G41*0.95</f>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="I41" s="4">
+        <f>H41*1.05</f>
+        <v>0.81795000000000007</v>
+      </c>
+      <c r="J41">
+        <v>0.96</v>
+      </c>
+      <c r="K41">
+        <f>J41</f>
+        <v>0.96</v>
+      </c>
+      <c r="L41">
+        <f>K41</f>
+        <v>0.96</v>
+      </c>
+      <c r="M41">
+        <v>0.7</v>
+      </c>
+      <c r="N41" s="4">
+        <f>M41*0.95</f>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="O41" s="4">
+        <f>N41*1.05</f>
+        <v>0.69824999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N40" xr:uid="{FEB86C80-6855-4296-9746-1E92B0D65FFA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N40">
-      <sortCondition ref="A1:A40"/>
+  <autoFilter ref="A1:O41" xr:uid="{FEB86C80-6855-4296-9746-1E92B0D65FFA}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="T"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O22">
+      <sortCondition ref="C1:C41"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3179,21 +3446,21 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3201,17 +3468,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3219,7 +3486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3227,27 +3494,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3255,7 +3525,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3263,7 +3533,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3271,7 +3541,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3279,17 +3549,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3297,7 +3567,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3305,12 +3575,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -3318,37 +3588,37 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3356,32 +3626,32 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3389,7 +3659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -3400,7 +3670,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -3408,7 +3678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -3416,7 +3686,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -3424,22 +3694,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
@@ -3447,11 +3720,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>68</v>
       </c>
     </row>
